--- a/datasets/test.xlsx
+++ b/datasets/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>degron_seq</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>E3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -458,638 +458,2178 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P49918</t>
+          <t>P46527</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLISDFFAKRKRS</t>
+          <t>Q5XPI4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q13309;Q9NXK8</t>
+          <t>SVEQTPKK</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MATLVELPDSVLLEIFSYLPVRDRIRISRVCHRWKRLVDDRWLWRHVDLTLYTMRPKVMWHLLRRYMASRLHSLRMGGYLFSGSQAPQLSPALLRALGQKCPNLKRLCLHVADLSMVPITSLPSTLRTLELHSCEISMAWLHKQQDPTVLPLLECIVLDRVPAFRDEHLQGLTRFRALRSLVLGGTYRVTETGLDAGLQELSYLQRLEVLGCTLSADSTLLAISRHLRDVRKIRLTVRGLSAPGLAVLEGMPALESLCLQGPLVTPEMPSPTEILSSCLTMPKLRVLELQGLGWEGQEAEKILCKGLPHCMVIVRACPKESMDWWM</t>
+          <t>MASKGAGMSFSRKSYRLTSDAEKSRVTGIVQEKLLNDYLNRIFSSSEHAPPAATSRKPLNFQNLPEHLDQLLQVDNEEEESQGQVEGRLGPSTVVLDHTGGFEGLLLVDDDLLGVIGHSNFGTIRSTTCVYKGKWLYEVLISSQGLMQIGWCTISCRFNQEEGVGDTHNSYAYDGNRVRKWNVTTTNYGKAWAAGDIVSCLIDLDDGTLSFCLNGVSLGTAFENLSRGLGMAYFPAISLSFKESVAFNFGSRPLRYPVAGYRPLQDPPSADLVRAQRLLGCFRAVLSVELDPVEGRLLDKESSKWRLRGQPTVLLTLAHIFHHFAPLLRKVYLVEAVLMSFLLGIVEKGTPTQAQSVVHQVLDLLWLFMEDYEVQDCLKQLMMSLLRLYRFSPIVPDLGLQIHYLRLTIAILRHEKSRKFLLSNVLFDVLRSVVFFYIKSPLRVEEAGLQELIPTTWWPHCSSREGKESTEMKEETAEERLRRRAYERGCQRLRKRIEVVEELQVQILKLLLDNKDDNGGEASRYIFLTKFRKFLQENASGRGNMPMLCPPEYMVCFLHRLISALRYYWDEYKASNPHASFSEEAYIPPQVFYNGKVDYFDLQRLGGLLSHLRKTLKDDLASKANIVIDPLELQSTAMDDLDEDEEPAPAMAQRPMQALAVGGPLPLPRPGWLSSPTLGRANRFLSTAAVSLMTPRRPLSTSEKVKVRTLSVEQRTREDIEGSHWNEGLLLGRPPEEPEQPLTENSLLEVLDGAVMMYNLSVHQQLGKMVGVSDDVNEYAMALRDTEDKLRRCPKRRKDILAELTKSQKVFSEKLDHLSRRLAWVHATVYSQEKMLDIYWLLRVCLRTIEHGDRTGSLFAFMPEFYLSVAINSYSALKNYFGPVHSMEELPGYEETLTRLAAILAKHFADARIVGTDIRDSLMQALASYVCYPHSLRAVERIPEEQRIAMVRNLLAPYEQRPWAQTNWILVRLWRGCGFGYRYTRLPHLLKTKLEDANLPSLQKPCPSTLLQQHMADLLQQGPDVAPSFLNSVLNQLNWAFSEFIGMIQEIQQAAERLERNFVDSRQLKVCATCFDLSVSLLRVLEMTITLVPEIFLDWTRPTSEMLLRRLAQLLNQVLNRVTAERNLFDRVVTLRLPGLESVDHYPILVAVTGILVQLLVRGPASEREQATSVLLADPCFQLRSICYLLGQPEPPAPGTALPAPDRKRFSLQSYADYISADELAQVEQMLAHLTSASAQAAAASLPTSEEDLCPICYAHPISAVFQPCGHKSCKACINQHLMNNKDCFFCKTTIVSVEDWEKGANTSTTSSAA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q6PGQ7</t>
+          <t>Q14247</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DSGYNT</t>
+          <t>Q75N03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q9Y297;Q13309;Q9P2N7;Q9P2J3</t>
+          <t>ADYRE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL;MPLKWKTSSPAIWKFPVPVLKTSRSTPLSPAYISLVEEEDQHMKLSLGGSEMGLSSHLQSSKAGPTRIFTSNTHSSVVLQGFDQLRLEGLLCDVTLMPGDTDDAFPVHRVMMASASDYFKAMFTGGMKEQDLMCIKLHGVSKVGLRKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVTLDNCVEVGRIANTYNLTEVDKYVNSFVLKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKATCRWLRLEEPRMDFAAKLMKNIRFPLMTPQELINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDTTHLVTLGGVLRQQLVVSKELRMYDEKAHEWKSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGYLYAVGGRNAAGELPTVECYNPRTNEWTYVAKMSEPHYGHAGTVYGGVMYISGGITHDTFQKELMCFDPDTDKWIQKAPMTTVRGLHCMCTVGERLYVIGGNHFRGTSDYDDVLSCEYYSPILDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPDKDEWHKVFDLPESLGGIRACTLTVFPPEETTPSPSRESPLSAP;MKVSLGNGEMGVSAHLQPCKAGTTRFFTSNTHSSVVLQGFDQLRIEGLLCDVTLVPGDGDEIFPVHRAMMASASDYFKAMFTGGMKEQDLMCIKLHGVNKVGLKKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVSLDNCVEVGRIANTYNLIEVDKYVNNFILKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKAACRWLRLEDPRMDYAAKLMKNIRFPLMTPQDLINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDSTHLVTLGGVLRQQLVVSKELRMYDERAQEWRSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGHLYAVGGRSAAGELATVECYNPRMNEWSYVAKMSEPHYGHAGTVYGGLMYISGGITHDTFQNELMCFDPDTDKWMQKAPMTTVRGLHCMCTVGDKLYVIGGNHFRGTSDYDDVLSCEYYSPTLDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPEKDEWHKVFDLPESLGGIRACTLTVFPPEENPGSPSRESPLSAPSDHS</t>
+          <t>MDHTDNELQGTNSSGSLGGLDVRRRIPIKLISKQANKAKPAPRTQRTINRMPAKAPPGDEEGFDYNEEERYDCKGGELFANQRRFPGHLFWDFQINILGEKDDTPVHFCDKCGLPIKIYGRMIPCKHVFCYDCAILHEKKGDKMCPGCSDPVQRIEQCTRGSLFMCSIVQGCKRTYLSQRDLQAHINHRHMRAGKPVTRASLENVHPPIAPPPTEIPERFIMPPDKHHMSHIPPKQHIMMPPPPLQHVPHEHYNQPHEDIRAPPAELSMAPPPPRSVSQETFRISTRKHSNLITVPIQDDSNSGAREPPPPAPAPAHHHPEYQGQPVVSHPHHIMPPQQHYAPPPPPPPPISHPMPHPPQAAGTPHLVYSQAPPPPMTSAPPPITPPPGHIIAQMPPYMNHPPPGPPPPQHGGPPVTAPPPHHYNPNSLPQFTEDQGTLSPPFTQPGGMSPGIWPAPRGPPPPPRLQGPPSQTPLPGPHHPDQTRYRPYYQ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P11308</t>
+          <t>P14635</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASSSS</t>
+          <t>Q86WB0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>O43791</t>
+          <t>PRTALGDIG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+          <t>MAAPCEGQAFAVGVEKNWGAVVRSPEGTPQKIRQLIDEGIAPEEGGVDAKDTSATSQSVNGSPQAEQPSLESTSKEAFFSRVETFSSLKWAGKPFELSPLVCAKYGWVTVECDMLKCSSCQAFLCASLQPAFDFDRYKQRCAELKKALCTAHEKFCFWPDSPSPDRFGMLPLDEPAILVSEFLDRFQSLCHLDLQLPSLRPEDLKTMCLTEDKISLLLHLLEDELDHRTDERKTTIKLGSDIQVHVTACILSVCGWACSSSLESMQLSLITCSQCMRKVGLWGFQQIESSMTDLDASFGLTSSPIPGLEGRPERLPLVPESPRRMMTRSQDATFSPGSEQAEKSPGPIVSRTRSWDSSSPVDRPEPEAASPTTRTRPVTRSMGTGDTPGLEVPSSPLRKAKRARLCSSSSSDTSSRSFFDPTSQHRDWCPWVNITLGKESRENGGTEPDASAPAEPGWKAVLTILLAHKQSSQPAETDSMSLSEKSRKVFRIFRQWESLCSC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P30307</t>
+          <t>O00429</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NKEND</t>
+          <t>Q9NX47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P38398</t>
+          <t>RKRLPVT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY</t>
+          <t>MPDQALQQMLDRSCWVCFATDEDDRTAEWVRPCRCRGSTKWVHQACLQRWVDEKQRGNSTARVACPQCNAEYLIVFPKLGPVVYVLDLADRLISKACPFAAAGIMVGSIYWTAVTYGAVTVMQVVGHKEGLDVMERADPLFLLIGLPTIPVMLILGKMIRWEDYVLRLWRKYSNKLQILNSIFPGIGCPVPRIPAEANPLADHVSATRILCGALVFPTIATIVGKLMFSSVNSNLQRTILGGIAFVAIKGAFKVYFKQQQYLRQAHRKILNYPEQEEA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q16236</t>
+          <t>P24864</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEETGE</t>
+          <t>O43791</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q9Y297;Q6ZNA4;Q14145;Q8TEB1;P62877</t>
+          <t>LLTPPQS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MSQWTPEYNELYTLKVDMKSEIPSDAPKTQESLKGILLHPEPIGAAKSFPAGVEMINSKVGNEFSHLCDDSQKQEKEMNGNQQEQEKSLVVRKKRKSQQAGPSYVQNCVKENQGILGLRQHLGTPSDEDNDSSFSDCLSSPSSSLHFGDSDTVTSDEDKEVSVRHSQTILNAKSRSHSARSHKWPRTETESVSGLLMKRPCLHGSSLRRLPCRKRFVKNNSSQRTQKQKERILMQRKKREVLARRKYALLPSSSSSSENDLSSESSSSSSTEGEEDLFVSASENHQNNPAVPSGSIDEDVVVIEASSTPQVTANEEINVTSTDSEVEIVTVGESYRSRSTLGHSRSHWSQGSSSHASRPQEPRNRSRISTVIQPLRQNAAEVVDLTVDEDEPTVVPTTSARMESQATSASINNSNPSTSEQASDTASAVTSSQPSTVSETSATLTSNSTTGTSIGDDSRRTTSSAVTETGPPAMPRLPSCCPQHSPCGGSSQNHHALGHPHTSCFQQHGHHFQHHHHHHHTPHPAVPVSPSFSDPACPVERPPQVQAPCGANSSSGTSYHEQQALPVDLSNSGIRSHGSGSFHGASAFDPCCPVSSSRAAIFGHQAAAAAPSQPLSSIDGYGSSMVAQPQPQPPPQPSLSSCRHYMPPPYASLTRPLHHQASACPHSHGNPPPQTQPPPQVDYVIPHPVHAFHSQISSHATSHPVAPPPPTHLASTAAPIPQHLPPTHQPISHHIPATAPPAQRLHPHEVMQRMEVQRRRMMQHPTRAHERPPPHPHRMHPNYGHGHHIHVPQTMSSHPRQAPERSAWELGIEAGVTAATYTPGALHPHLAHYHAPPRLHHLQLGALPLMVPDMAGYPHIRYISSGLDGTSFRGPFRGNFEELIHLEERLGNVNRGASQGTIERCTYPHKYKKVTTDWFSQRKLHCKQDGEEGTEEDTEEKCTICLSILEEGEDVRRLPCMHLFHQVCVDQWLITNKKCPICRVDIEAQLPSES;MQPDPRPSGAGACCRFLPLQSQCPEGAGDAVMYASTECKAEVTPSQHGNRTFSYTLEDHTKQAFGIMNELRLSQQLCDVTLQVKYQDAPAAQFMAHKVVLASSSPVFKAMFTNGLREQGMEVVSIEGIHPKVMERLIEFAYTASISMGEKCVLHVMNGAVMYQIDSVVRACSDFLVQQLDPSNAIGIANFAEQIGCVELHQRAREYIYMHFGEVAKQEEFFNLSHCQLVTLISRDDLNVRCESEVFHACINWVKYDCEQRRFYVQALLRAVRCHSLTPNFLQMQLQKCEILQSDSRCKDYLVKIFEELTLHKPTQVMPCRAPKVGRLIYTAGGYFRQSLSYLEAYNPSDGTWLRLADLQVPRSGLAGCVVGGLLYAVGGRNNSPDGNTDSSALDCYNPMTNQWSPCAPMSVPRNRIGVGVIDGHIYAVGGSHGCIHHNSVERYEPERDEWHLVAPMLTRRIGVGVAVLNRLLYAVGGFDGTNRLNSAECYYPERNEWRMITAMNTIRSGAGVCVLHNCIYAAGGYDGQDQLNSVERYDVETETWTFVAPMKHRRSALGITVHQGRIYVLGGYDGHTFLDSVECYDPDTDTWSEVTRMTSGRSGVGVAVTMEPCRKQIDQQNCTC;MGSRNSSSAGSGSGDPSEGLPRRGAGLRRSEEEEEEDEDVDLAQVLAYLLRRGQVRLVQGGGAANLQFIQALLDSEEENDRAWDGRLGDRYNPPVDATPDTRELEFNEIKTQVELATGQLGLRRAAQKHSFPRMLHQRERGLCHRGSFSLGEQSRVISHFLPNDLGFTDSYSQKAFCGIYSKDGQIFMSACQDQTIRLYDCRYGRFRKFKSIKARDVGWSVLDVAFTPDGNHFLYSSWSDYIHICNIYGEGDTHTALDLRPDERRFAVFSIAVSSDGREVLGGANDGCLYVFDREQNRRTLQIESHEDDVNAVAFADISSQILFSGGDDAICKVWDRRTMREDDPKPVGALAGHQDGITFIDSKGDARYLISNSKDQTIKLWDIRRFSSREGMEASRQAATQQNWDYRWQQVPKKAWRKLKLPGDSSLMTYRGHGVLHTLIRCRFSPIHSTGQQFIYSGCSTGKVVVYDLLSGHIVKKLTNHKACVRDVSWHPFEEKIVSSSWDGNLRLWQYRQAEYFQDDMPESEECASAPAPVPQSSTPFSSPQ;MAAAMDVDTPSGTNSGAGKKRFEVKKWNAVALWAWDIVVDNCAICRNHIMDLCIECQANQASATSEECTVAWGVCNHAFHFHCISRWLKTRQVCPLDNREWEFQKYGH</t>
+          <t>MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>P46527</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FTRIR</t>
+          <t>Q12834</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q9Y297</t>
+          <t>SVEQTPKK</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q13127</t>
+          <t>Q96GD4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEGSDDSGL</t>
+          <t>Q9UM11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UKB1</t>
+          <t>RLPLAQV</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q8W191</t>
+          <t>P16471</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EELLMVPDM</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P43254</t>
+          <t>DSGRGS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEEISTDPVVPAVKPDPRTSSVGEGANRHENDDGGSGGSEIGAPDLDKDLLCPICMQIIKDAFLTACGHSFCYMCIITHLRNKSDCPCCSQHLTNNQLYPNFLLDKLLKKTSARHVSKTASPLDQFREALQRGCDVSIKEVDNLLTLLAERKRKMEQEEAERNMQILLDFLHCLRKQKVDELNEVQTDLQYIKEDINAVERHRIDLYRARDRYSVKLRMLGDDPSTRNAWPHEKNQIGFNSNSLSIRGGNFVGNYQNKKVEGKAQGSSHGLPKKDALSGSDSQSLNQSTVSMARKKRIHAQFNDLQECYLQKRRQLADQPNSKQENDKSVVRREGYSNGLADFQSVLTTFTRYSRLRVIAEIRHGDIFHSANIVSSIEFDRDDELFATAGVSRCIKVFDFSSVVNEPADMQCPIVEMSTRSKLSCLSWNKHEKNHIASSDYEGIVTVWDVTTRQSLMEYEEHEKRAWSVDFSRTEPSMLVSGSDDCKVKVWCTRQEASVINIDMKANICCVKYNPGSSNYIAVGSADHHIHYYDLRNISQPLHVFSGHKKAVSYVKFLSNNELASASTDSTLRLWDVKDNLPVRTFRGHTNEKNFVGLTVNSEYLACGSETNEVYVYHKEITRPVTSHRFGSPDMDDAEEEAGSYFISAVCWKSDSPTMLTANSQGTIKVLVLAA</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q9UER7</t>
+          <t>O14965</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ADSST</t>
+          <t>P40337</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q00987;O43791</t>
+          <t>AQRVLC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MSRVPSPPPPAEMSSGPVAESWCYTQIKVVKFSYMWTINNFSFCREEMGEVIKSSTFSSGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCPKSEVRAKFKFSILNAKGEETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPDDKLTLFCEVSVVQDSVNISGQNTMNMVKVPECRLADELGGLWENSRFTDCCLCVAGQEFQAHKAILAARSPVFSAMFEHEMEESKKNRVEINDVEPEVFKEMMCFIYTGKAPNLDKMADDLLAAADKYALERLKVMCEDALCSNLSVENAAEILILADLHSADQLKTQAVDFINYHASDVLETSGWKSMVVSHPHLVAEAYRSLASAQCPFLGPPRKRLKQS</t>
+          <t>MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>O75553</t>
+          <t>P08138</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PPVAQVMPG</t>
+          <t>P22681</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q8WXH5;O14512</t>
+          <t>KGDGGLYSSLPP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MAENNENISKNVDVRPKTSRSRSADRKDGYVWSGKKLSWSKKSESYSDAETVNGIEKTEVSLRNQERKHSCSSIELDLDHSCGHRFLGRSLKQKLQDAVGQCFPIKNCSSRHSSGLPSKRKIHISELMLDKCPFPPRSDLAFRWHFIKRHTAPINSKSDEWVSTDLSQTELRDGQLKRRNMEENINCFSHTNVQPCVITTDNALCREGPMTGSVMNLVSNNSIEDSDMDSDDEILTLCTSSRKRNKPKWDLDDEILQLETPPKYHTQIDYVHCLVPDLLQINNNPCYWGVMDKYAAEALLEGKPEGTFLLRDSAQEDYLFSVSFRRYSRSLHARIEQWNHNFSFDAHDPCVFHSPDITGLLEHYKDPSACMFFEPLLSTPLIRTFPFSLQHICRTVICNCTTYDGIDALPIPSSMKLYLKEYHYKSKVRVLRIDAPEQQC;MVFRNVGRPPEEEDVEAAPEPGPSELLCPRHRCALDPKALPPGLALERTWGPAAGLEAQLAALGLGQPAGPGVKTVGGGCCPCPCPPQPPPPQPQPPAAAPQAGEDPTETSDALLVLEGLESEAESLETNSCSEEELSSPGRGGGGGGRLLLQPPGPELPPVPFPLQDLVPLGRLSRGEQQQQQQQQPPPPPPPPGPLRPLAGPSRKGSFKIRLSRLFRTKSCNGGSGGGDGTGKRPSGELAASAASLTDMGGSAGRELDAGRKPKLTRTQSAFSPVSFSPLFTGETVSLVDVDISQRGLTSPHPPTPPPPPRRSLSLLDDISGTLPTSVLVAPMGSSLQSFPLPPPPPPHAPDAFPRIAPIRAAESLHSQPPQHLQCPLYRPDSSSFAASLRELEKCGWYWGPMNWEDAEMKLKGKPDGSFLVRDSSDPRYILSLSFRSQGITHHTRMEHYRGTFSLWCHPKFEDRCQSVVEFIKRAIMHSKNGKFLYFLRSRVPGLPPTPVQLLYPVSRFSNVKSLQHLCRFRIRQLVRIDHIPDLPLPKPLISYIRKFYYYDPQEEVYLSLKEAQLISKQKQEVEPST</t>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P09619</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SIFNSLYTTLSD</t>
+          <t>Q9H0M0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>P22681</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+          <t>MATASPRSDTSNNHSGRLQLQVTVSSAKLKRKKNWFGTAIYTEVVVDGEITKTAKSSSSSNPKWDEQLTVNVTPQTTLEFQVWSHRTLKADALLGKATIDLKQALLIHNRKLERVKEQLKLSLENKNGIAQTGELTVVLDGLVIEQENITNCSSSPTIEIQENGDALHENGEPSARTTARLAVEGTNGIDNHVPTSTLVQNSCCSYVVNGDNTPSSPSQVAARPKNTPAPKPLASEPADDTVNGESSSFAPTDNASVTGTPVVSEENALSPNCTSTTVEDPPVQEILTSSENNECIPSTSAELESEARSILEPDTSNSRSSSAFEAAKSRQPDGCMDPVRQQSGNANTETLPSGWEQRKDPHGRTYYVDHNTRTTTWERPQPLPPGWERRVDDRRRVYYVDHNTRTTTWQRPTMESVRNFEQWQSQRNQLQGAMQQFNQRYLYSASMLAAENDPYGPLPPGWEKRVDSTDRVYFVNHNTKTTQWEDPRTQGLQNEEPLPEGWEIRYTREGVRYFVDHNTRTTTFKDPRNGKSSVTKGGPQIAYERGFRWKLAHFRYLCQSNALPSHVKINVSRQTLFEDSFQQIMALKPYDLRRRLYVIFRGEEGLDYGGLAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASTINPDHLSYFCFIGRFIAMALFHGKFIDTGFSLPFYKRMLSKKLTIKDLESIDTEFYNSLIWIRDNNIEECGLEMYFSVDMEILGKVTSHDLKLGGSNILVTEENKDEYIGLMTEWRFSRGVQEQTKAFLDGFNEVVPLQWLQYFDEKELEVMLCGMQEVDLADWQRNTVYRHYTRNSKQIIWFWQFVKETDNEVRMRLLQFVTGTCRLPLGGFAELMGSNGPQKFCIEKVGKDTWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P24869</t>
+          <t>O60566</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DKENQ</t>
+          <t>Q12834</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>P26309;P53197</t>
+          <t>RSTLAEL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MPESSRDKGNAAISGNRSVLSIASPTKLNILSSDWSRNQGKVSKNSLKRSSSLNIRNSKRPSLQASANSIYSRPKITIGAPPLIRRDSSFFKDEFDAKKDKATFSAYSSRSYPTIGSESVVSQTSLSQPTTSREVDEQFTVAADRYIPILQGASQNKVDPETLHEALPPPNASPISHLRAQTKIVFKQNVAEACGLDMNKRILQYMPEPPKCSSLRQKSYIMKKRTHYSYQQEQKIPDLIKLRKINTNPERILDAPGFQDDFYLNLLSWSKKNVLAIALDTALYLWNATTGDVSLLTDFENTTICSVTWSDDDCHISIGKEDGNTEIWDVETMSLIRTMRSGLGVRIGSLSWLDTLIATGSRSGEIQINDVRIKQHIVSTWAEHTGEVCGLSYKSDGLQLASGGNDNTVMIWDTRTSLPQFSKKTHTAAVKALSWCPYSPNILASGGGQTDKHIHFWNSITGARVGSINTGSQVSSLHWGQSHTSTNGGMMNKEIVATGGNPENAISVYNYETKFKVAEVVHAHEARICCSQLSPDGTTLATVGGDENLKFYKIFDPRCTGRSREDGLMDGMLGLIGKEGCRTNDKENRSKNSSEIHTRRPSSTSQYLIR;MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P04183</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NKENC</t>
+          <t>Q9NZJ0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q5FBB7</t>
+          <t>O75496</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HLSLKDI</t>
+          <t>P35226</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>RRTLKMI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MHRTTRIKITELNPHLMCVLCGGYFIDATTIIECLHSFCKTCIVRYLETSKYCPICDVQVHKTRPLLNIRSDKTLQDIVYKLVPGLFKNEMKRRRDFYAAHPSADAANGSNEDRGEVADEDKRIITDDEIISLSIEFFDQNRLDRKVNKDKEKSKEEVNDKRYLRCPAAMTVMHLRKFLRSKMDIPNTFQIDVMYEEEPLKDYYTLMDIAYIYTWRRNGPLPLKYRVRPTCKRMKISHQRDGLTNAGELESDSGSDKANSPAGGIPSTSSCLPSPSTPVQSPHPQFPHISSTMNGTSNSPSGNHQSSFANRPRKSSVNGSSATSSG</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q86T82</t>
+          <t>P00533</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NKENK</t>
+          <t>O75159</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q9Y297</t>
+          <t>DSFLQRYSSDP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+          <t>MDKVGKMWNNFKYRCQNLFGHEGGSRSENVDMNSNRCLSVKEKNISIGDSTPQQQSSPLRENIALQLGLSPSKNSSRRNQNCATEIPQIVEISIEKDNDSCVTPGTRLARRDSYSRHAPWGGKKKHSCSTKTQSSLDADKKFGRTRSGLQRRERRYGVSSVHDMDSVSSRTVGSRSLRQRLQDTVGLCFPMRTYSKQSKPLFSNKRKIHLSELMLEKCPFPAGSDLAQKWHLIKQHTAPVSPHSTFFDTFDPSLVSTEDEEDRLRERRRLSIEEGVDPPPNAQIHTFEATAQVNPLYKLGPKLAPGMTEISGDSSAIPQANCDSEEDTTTLCLQSRRQKQRQISGDSHTHVSRQGAWKVHTQIDYIHCLVPDLLQITGNPCYWGVMDRYEAEALLEGKPEGTFLLRDSAQEDYLFSVSFRRYNRSLHARIEQWNHNFSFDAHDPCVFHSSTVTGLLEHYKDPSSCMFFEPLLTISLNRTFPFSLQYICRAVICRCTTYDGIDGLPLPSMLQDFLKEYHYKQKVRVRWLEREPVKAK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q9Y2N7</t>
+          <t>P19838</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAPYISMDDDFQL</t>
+          <t>Q9UKB1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>P40337</t>
+          <t>DSGVETS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD</t>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P08581</t>
+          <t>P24864</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NESVDYRATFP</t>
+          <t>O94955</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>P22681;Q9Y4L5;Q9BV68</t>
+          <t>LLTPPQS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT;MAEASAAGADSGAAVAAHRFFCHFCKGEVSPKLPEYICPRCESGFIEEVTDDSSFLGGGGSRIDNTTTTHFAELWGHLDHTMFFQDFRPFLSSSPLDQDNRANERGHQTHTDFWGARPPRLPLGRRYRSRGSSRPDRSPAIEGILQHIFAGFFANSAIPGSPHPFSWSGMLHSNPGDYAWGQTGLDAIVTQLLGQLENTGPPPADKEKITSLPTVTVTQEQVDMGLECPVCKEDYTVEEEVRQLPCNHFFHSSCIVPWLELHDTCPVCRKSLNGEDSTRQSQSTEASASNRFSNDSQLHDRWTF;MAEASPHPGRYFCHCCSVEIVPRLPDYICPRCESGFIEELPEETRSTENGSAPSTAPTDQSRPPLEHVDQHLFTLPQGYGQFAFGIFDDSFEIPTFPPGAQADDGRDPESRRERDHPSRHRYGARQPRARLTTRRATGRHEGVPTLEGIIQQLVNGIITPATIPSLGPWGVLHSNPMDYAWGANGLDAIITQLLNQFENTGPPPADKEKIQALPTVPVTEEHVGSGLECPVCKDDYALGERVRQLPCNHLFHDGCIVPWLEQHDSCPVCRKSLTGQNTATNPPGLTGVSFSSSSSSSSSSSPSNENATSNS</t>
+          <t>MSIHIVALGNEGDTFHQDNRPSGLIRTYLGRSPLVSGDESSLLLNAASTVARPVFTEYQASAFGNVKLVVHDCPVWDIFDSDWYTSRNLIGGADIIVIKYNVNDKFSFHEVKDNYIPVIKRALNSVPVIIAAVGTRQNEELPCTCPLCTSDRGSCVSTTEGIQLAKELGATYLELHSLDDFYIGKYFGGVLEYFMIQALNQKTSEKMKKRKMSNSFHGIRPPQLEQPEKMPVLKAEASHYNSDLNNLLFCCQCVDVVFYNPNLKKVVEAHKIVLCAVSHVFMLLFNVKSPTDIQDSSIIRTTQDLFAINRDTAFPGASHESSGNPPLRVIVKDALFCSCLSDILRFIYSGAFQWEELEEDIRKKLKDSGDVSNVIEKVKCILKTPGKINCLRNCKTYQARKPLWFYNTSLKFFLNKPMLADVVFEIQGTTVPAHRAILVARCEVMAAMFNGNYMEAKSVLIPVYGVSKETFLSFLEYLYTDSCCPAGIFQAMCLLICAEMYQVSRLQHICELFIITQLQSMPSRELASMNLDIVDLLKKAKFHHSDCLSTWLLHFIATNYLIFSQKPEFQDLSVEERSFVEKHRWPSNMYLKQLAEYRKYIHSRKCRCLVM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q9ULW0</t>
+          <t>P08581</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EKENL</t>
+          <t>Q9BV68</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q9UM11</t>
+          <t>NESVDYRATFP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+          <t>MAEASPHPGRYFCHCCSVEIVPRLPDYICPRCESGFIEELPEETRSTENGSAPSTAPTDQSRPPLEHVDQHLFTLPQGYGQFAFGIFDDSFEIPTFPPGAQADDGRDPESRRERDHPSRHRYGARQPRARLTTRRATGRHEGVPTLEGIIQQLVNGIITPATIPSLGPWGVLHSNPMDYAWGANGLDAIITQLLNQFENTGPPPADKEKIQALPTVPVTEEHVGSGLECPVCKDDYALGERVRQLPCNHLFHDGCIVPWLEQHDSCPVCRKSLTGQNTATNPPGLTGVSFSSSSSSSSSSSPSNENATSNS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>O75496</t>
+          <t>O00221</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RRTLKMI</t>
+          <t>Q13309</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q9UM11;Q9NYG5;P35226;Q99496</t>
+          <t>DSGIES</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MKVKIKCWNGVATWLWVANDENCGICRMAFNGCCPDCKVPGDDCPLVWGQCSHCFHMHCILKWLHAQQVQQHCPMCRQEWKFKE;MHRTTRIKITELNPHLMCVLCGGYFIDATTIIECLHSFCKTCIVRYLETSKYCPICDVQVHKTRPLLNIRSDKTLQDIVYKLVPGLFKNEMKRRRDFYAAHPSADAANGSNEDRGEVADEDKRIITDDEIISLSIEFFDQNRLDRKVNKDKEKSKEEVNDKRYLRCPAAMTVMHLRKFLRSKMDIPNTFQIDVMYEEEPLKDYYTLMDIAYIYTWRRNGPLPLKYRVRPTCKRMKISHQRDGLTNAGELESDSGSDKANSPAGGIPSTSSCLPSPSTPVQSPHPQFPHISSTMNGTSNSPSGNHQSSFANRPRKSSVNGSSATSSG;MSQAVQTNGTQPLSKTWELSLYELQRTPQEAITDGLEIVVSPRSLHSELMCPICLDMLKNTMTTKECLHRFCADCIITALRSGNKECPTCRKKLVSKRSLRPDPNFDALISKIYPSRDEYEAHQERVLARINKHNNQQALSHSIEEGLKIQAMNRLQRGKKQQIENGSGAEDNGDSSHCSNASTHSNQEAGPSNKRTKTSDDSGLELDNNNAAMAIDPVMDGASEIELVFRPHPTLMEKDDSAQTRYIKTSGNATVDHLSKYLAVRLALEELRSKGESNQMNLDTASEKQYTIYIATASGQFTVLNGSFSLELVSEKYWKVNKPMELYYAPTKEHK</t>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q99741</t>
+          <t>P03372</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RKRLGDD</t>
+          <t>Q96F44</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q9UM11;Q7Z6Z7;Q9NZJ0;P41002;O60784</t>
+          <t>AGSTS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA;MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL;MGSGGVVHCRCAKCFCYPTKRRIRRRPRNLTILSLPEDVLFHILKWLSVEDILAVRAVHSQLKDLVDNHASVWACASFQELWPSPGNLKLFERAAEKGNFEAAVKLGIAYLYNEGLSVSDEARAEVNGLKASRFFSLAERLNVGAAPFIWLFIRPPWSVSGSCCKAVVHESLRAECQLQRTHKASILHCLGRVLSLFEDEEKQQQAHDLFEEAAHQGCLTSSYLLWESDRRTDVSDPGRCLHSFRKLRDYAAKGCWEAQLSLAKACANANQLGLEVRASSEIVCQLFQASQAVSKQQVFSVQKGLNDTMRYILIDWLVEVATMKDFTSLCLHLTVECVDRYLRRRLVPRYRLQLLGIACMVICTRFISKEILTIREAVWLTDNTYKYEDLVRMMGEIVSALEGKIRVPTVVDYKEVLLTLVPVELRTQHLCSFLCELSLLHTSLSAYAPARLAAAALLLARLTHGQTQPWTTQLWDLTGFSYEDLIPCVLSLHKKCFHDDAPKDYRQVSLTAVKQRFEDKRYGEISQEEVLSYSQLCAALGVTQDSPDPPTFLSTGEIHAFLSSPSGRRTKRKRENSLQEDRGSFVTTPTAELSSQEETLLGSFLDWSLDCCSGYEGDQESEGEKEGDVTAPSGILDVTVVYLNPEQHCCQESSDEEACPEDKGPQDPQALALDTQIPATPGPKPLVRTSREPGKDVTTSGYSSVSTASPTSSVDGGLGALPQPTSVLSLDSDSHTQPCHHQARKSCLQCRPPSPPESSVPQQQVKRINLCIHSEEEDMNLGLVRL;MDFLLGNPFSSPVGQRIEKATDGSLQSEDWALNMEICDIINETEEGPKDALRAVKKRIVGNKNFHEVMLALTVLETCVKNCGHRFHVLVASQDFVESVLVRTILPKNNPPTIVHDKVLNLIQSWADAFRSSPDLTGVVTIYEDLRRKGLEFPMTDLDMLSPIHTPQRTVFNSETQSGQDSVGTDSSQQEDSGQHAAPLPAPPILSGDTPIAPTPEQIGKLRSELEMVSGNVRVMSEMLTELVPTQAEPADLELLQELNRTCRAMQQRVLELIPQIANEQLTEELLIVNDNLNNVFLRHERFERFRTGQTTKAPSEAEPAADLIDMGPDPAATGNLSSQLAGMNLGSSSVRAGLQSLEASGRLEDEFDMFALTRGSSLADQRKEVKYEAPQATDGLAGALDARQQSTGAIPVTQACLMEDIEQWLSTDVGNDAEEPKGVTSEEFDKFLEERAKAADRLPNLSSPSAEGPPGPPSGPAPRKKTQEKDDDMLFAL</t>
+          <t>MAAPDLSTNLQEEATCAICLDYFTDPVMTDCGHNFCRECIRRCWGQPEGPYACPECRELSPQRNLRPNRPLAKMAEMARRLHPPSPVPQGVCPAHREPLAAFCGDELRLLCAACERSGEHWAHRVRPLQDAAEDLKAKLEKSLEHLRKQMQDALLFQAQADETCVLWQKMVESQRQNVLGEFERLRRLLAEEEQQLLQRLEEEELEVLPRLREGAAHLGQQSAHLAELIAELEGRCQLPALGLLQDIKDALRRVQDVKLQPPEVVPMELRTVCRVPGLVETLRRFRGDVTLDPDTANPELILSEDRRSVQRGDLRQALPDSPERFDPGPCVLGQERFTSGRHYWEVEVGDRTSWALGVCRENVNRKEKGELSAGNGFWILVFLGSYYNSSERALAPLRDPPRRVGIFLDYEAGHLSFYSATDGSLLFIFPEIPFSGTLRPLFSPLSSSPTPMTICRPKGGSGDTLAPQ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P49757</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FEAQWAAL</t>
+          <t>P08393</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q00987;Q8IUQ4;Q8TBB1;Q8N448</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC;MNQPESANDPEPLCAVCGQAHSLEENHFYSYPEEVDDDLICHICLQALLDPLDTPCGHTYCTLCLTNFLVEKDFCPMDRKPLVLQHCKKSSILVNKLLNKLLVTCPFREHCTQVLQRCDLEHHFQTSCKGASHYGLTKDRKRRSQDGCPDGCASLTATAPSPEVSAAATISLMTDEPGLDNPAYVSSAEDGQPAISPVDSGRSNRTRARPFERSTIRSRSFKKINRALSVLRRTKSGSAVANHADQGRENSENTTAPEVFPRLYHLIPDGEITSIKINRVDPSESLSIRLVGGSETPLVHIIIQHIYRDGVIARDGRLLPGDIILKVNGMDISNVPHNYAVRLLRQPCQVLWLTVMREQKFRSRNNGQAPDAYRPRDDSFHVILNKSSPEEQLGIKLVRKVDEPGVFIFNVLDGGVAYRHGQLEENDRVLAINGHDLRYGSPESAAHLIQASERRVHLVVSRQVRQRSPDIFQEAGWNSNGSWSPGPGERSNTPKPLHPTITCHEKVVNIQKDPGESLGMTVAGGASHREWDLPIYVISVEPGGVISRDGRIKTGDILLNVDGVELTEVSRSEAVALLKRTSSSIVLKALEVKEYEPQEDCSSPAALDSNHNMAPPSDWSPSWVMWLELPRCLYNCKDIVLRRNTAGSLGFCIVGGYEEYNGNKPFFIKSIVEGTPAYNDGRIRCGDILLAVNGRSTSGMIHACLARLLKELKGRITLTIVSWPGTFL;MGTTSDEMVSVEQTSSSSLNPLCFECGQQHWTRENHLYNYQNEVDDDLVCHICLQPLLQPLDTPCGHTFCYKCLRNFLQEKDFCPLDRKRLHFKLCKKSSILVHKLLDKLLVLCPFSSVCKDVMQRCDLEAHLKNRCPGASHRRVALERRKTSRTQAEIENENGPTLLDPAGTLSPEADCLGTGAVPVERHLTSASLSTWSEEPGLDNPAFEESAGADTTQQPLSLPEGEITTIEIHRSNPYIQLGISIVGGNETPLINIVIQEVYRDGVIARDGRLLAGDQILQVNNYNISNVSHNYARAVLSQPCNTLHLTVLRERRFGNRAHNHSDSNSPREEIFQVALHKRDSGEQLGIKLVRRTDEPGVFILDLLEGGLAAQDGRLSSNDRVLAINGHDLKYGTPELAAQIIQASGERVNLTIARPGKPQPGNTIREAGNHSSSSQHHTPPPYYSRPSSHKDLTQCVTCQEKHITVKKEPHESLGMTVAGGRGSKSGELPIFVTSVPPHGCLARDGRIKRGDVLLNINGIDLTNLSHSEAVAMLKASAASPAVALKALEVQIVEEATQNAEEQPSTFSENEYDASWSPSWVMWLGLPSTLHSCHDIVLRRSYLGSWGFSIVGGYEENHTNQPFFIKTIVLGTPAYYDGRLKCGDMIVAVNGLSTVGMSHSALVPMLKEQRNKVTLTVICWPGSLV</t>
+          <t>MEPRPGASTRRPEGRPQREPAPDVWVFPCDRDLPDSSDSEAETEVGGRGDADHHDDDSASEADSTDTELFETGLLGPQGVDGGAVSGGSPPREEDPGSCGGAPPREDGGSDEGDVCAVCTDEIAPHLRCDTFPCMHRFCIPCMKTWMQLRNTCPLCNAKLVYLIVGVTPSGSFSTIPIVNDPQTRMEAEEAVRAGTAVDFIWTGNQRFAPRYLTLGGHTVRALSPTHPEPTTDEDDDDLDDADYVPPAPRRTPRAPPRRGAAAPPVTGGASHAAPQPAAARTAPPSAPIGPHGSSNTNTTTNSSGGGGSRQSRAAAPRGASGPSGGVGVGVGVVEAEAGRPRGRTGPLVNRPAPLANNRDPIVISDSPPASPHRPPAAPMPGSAPRPGPPASAAASGPARPRAAVAPCVRAPPPGPGPRAPAPGAEPAARPADARRVPQSHSSLAQAANQEQSLCRARATVARGSGGPGVEGGHGPSRGAAPSGAAPLPSAASVEQEAAVRPRKRRGSGQENPSPQSTRPPLAPAGAKRAATHPPSDSGPGGRGQGGPGTPLTSSAASASSSSASSSSAPTPAGAASSAAGAASSSASASSGGAVGALGGRQEETSLGPRAASGPRGPRKCARKTRHAETSGAVPAGGLTRYLPISGVSSVVALSPYVNKTITGDCLPILDMETGNIGAYVVLVDQTGNMATRLRAAVPGWSRRTLLPETAGNHVMPPEYPTAPASEWNSLWMTPVGNMLFDQGTLVGALDFRSLRSRHPWSGEQGASTRDEGKQ</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q15784</t>
+          <t>P16471</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RNFLTEQ</t>
+          <t>Q9UKB1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q12834</t>
+          <t>DSGRGS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MAQFAFESDLHSLLQLDAPIPNAPPARWQRKAKEAAGPAPSPMRAANRSHSAGRTPGRTPGKSSSKVQTTPSKPGGDRYIPHRSAAQMEVASFLLSKENQPENSQTPTKKEHQKAWALNLNGFDVEEAKILRLSGKPQNAPEGYQNRLKVLYSQKATPGSSRKTCRYIPSLPDRILDAPEIRNDYYLNLVDWSSGNVLAVALDNSVYLWSASSGDILQLLQMEQPGEYISSVAWIKEGNYLAVGTSSAEVQLWDVQQQKRLRNMTSHSARVGSLSWNSYILSSGSRSGHIHHHDVRVAEHHVATLSGHSQEVCGLRWAPDGRHLASGGNDNLVNVWPSAPGEGGWVPLQTFTQHQGAVKAVAWCPWQSNVLATGGGTSDRHIRIWNVCSGACLSAVDAHSQVCSILWSPHYKELISGHGFAQNQLVIWKYPTMAKVAELKGHTSRVLSLTMSPDGATVASAAADETLRLWRCFELDPARRREREKASAAKSSLIHQGIR</t>
+          <t>MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q99728</t>
+          <t>P19538</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RAALDRL</t>
+          <t>Q9VFP2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>P38398</t>
+          <t>PSSTS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MDLSALRVEEVQNVINAMQKILECPICLELIKEPVSTKCDHIFCKFCMLKLLNQKKGPSQCPLCKNDITKRSLQESTRFSQLVEELLKIICAFQLDTGLEYANSYNFAKKENNSPEHLKDEVSIIQSMGYRNRAKRLLQSEPENPSLQETSLSVQLSNLGTVRTLRTKQRIQPQKTSVYIELGSDSSEDTVNKATYCSVGDQELLQITPQGTRDEISLDSAKKAACEFSETDVTNTEHHQPSNNDLNTTEKRAAERHPEKYQGSSVSNLHVEPCGTNTHASSLQHENSSLLLTKDRMNVEKAEFCNKSKQPGLARSQHNRWAGSKETCNDRRTPSTEKKVDLNADPLCERKEWNKQKLPCSENPRDTEDVPWITLNSSIQKVNEWFSRSDELLGSDDSHDGESESNAKVADVLDVLNEVDEYSGSSEKIDLLASDPHEALICKSERVHSKSVESNIEDKIFGKTYRKKASLPNLSHVTENLIIGAFVTEPQIIQERPLTNKLKRKRRPTSGLHPEDFIKKADLAVQKTPEMINQGTNQTEQNGQVMNITNSGHENKTKGDSIQNEKNPNPIESLEKESAFKTKAEPISSSISNMELELNIHNSKAPKKNRLRRKSSTRHIHALELVVSRNLSPPNCTELQIDSCSSSEEIKKKKYNQMPVRHSRNLQLMEGKEPATGAKKSNKPNEQTSKRHDSDTFPELKLTNAPGSFTKCSNTSELKEFVNPSLPREEKEEKLETVKVSNNAEDPKDLMLSGERVLQTERSVESSSISLVPGTDYGTQESISLLEVSTLGKAKTEPNKCVSQCAAFENPKGLIHGCSKDNRNDTEGFKYPLGHEVNHSRETSIEMEESELDAQYLQNTFKVSKRQSFAPFSNPGNAEEECATFSAHSGSLKKQSPKVTFECEQKEENQGKNESNIKPVQTVNITAGFPVVGQKDKPVDNAKCSIKGGSRFCLSSQFRGNETGLITPNKHGLLQNPYRIPPLFPIKSFVKTKCKKNLLEENFEEHSMSPEREMGNENIPSTVSTISRNNIRENVFKEASSSNINEVGSSTNEVGSSINEIGSSDENIQAELGRNRGPKLNAMLRLGVLQPEVYKQSLPGSNCKHPEIKKQEYEEVVQTVNTDFSPYLISDNLEQPMGSSHASQVCSETPDDLLDDGEIKEDTSFAENDIKESSAVFSKSVQKGELSRSPSPFTHTHLAQGYRRGAKKLESSEENLSSEDEELPCFQHLLFGKVNNIPSQSTRHSTVATECLSKNTEENLLSLKNSLNDCSNQVILAKASQEHHLSEETKCSASLFSSQCSELEDLTANTNTQDPFLIGSSKQMRHQSESQGVGLSDKELVSDDEERGTGLEENNQEEQSMDSNLGEAASGCESETSVSEDCSGLSSQSDILTTQQRDTMQHNLIKLQQEMAELEAVLEQHGSQPSNSYPSIISDSSALEDLRNPEQSTSEKAVLTSQKSSEYPISQNPEGLSADKFEVSADSSTSKNKEPGVERSSPSKCPSLDDRWYMHSCSGSLQNRNYPSQEELIKVVDVEEQQLEESGPHDLTETSYLPRQDLEGTPYLESGISLFSDDPESDPSEDRAPESARVGNIPSSTSALKVPQLKVAESAQSPAAAHTTDTAGYNAMEESVSREKPELTASTERVNKRMSMVVSGLTPEEFMLVYKFARKHHITLTNLITEETTHVVMKTDAEFVCERTLKYFLGIAGGKWVVSYFWVTQSIKERKMLNEHDFEVRGDVVNGRNHQGPKRARESQDRKIFRGLEICCYGPFTNMPTDQLEWMVQLCGASVVKELSSFTLGTGVHPIVVVQPDAWTEDNGFHAIGQMCEAPVVTREWVLDSVALYQCQELDTYLIPQIPHSHY</t>
+          <t>MFEPYVKIKKKRSVNEIYENENLEQQQHHLQQQQQQPATSDNCCCENGEPQNAPEVATATVAATSVAATSAAATVATGAAASSSSSGNCSRLQQLISTPPVLLRRSSLQQQQHQQQQHHPHTPAATATPPQQQQQQQAAPSVLQQHLGHLNYESGATAAAAATAAAAAATVATSRSGSATLAQHLATPSNILQAAFGSSNLQHILTRSAPSPSSSAISSNNCSSACAGNTHYNGGNSNSGSSSSNSNHHSNSIIASRLFGAASSSSSSSSSSASASSSSVAASSSSSSHHLHSHHSALTNSITNRINQSIRRHLNQQQHHHPLSASSSSASASPSASTSSSSSYQQSSVQQQHYNCAHPAQQQQHHHHHHSSSSSSSSSSSSSHHHHNSSSSSNSNNQQQPQQSPLCLVLLVKCPNSKEFCNAAANFCDKRLPVNECQASQTARVTSNLHASSSTMAVSRVPSPPLPEVNTPVAENWCYTQVKVVKFSYMWTINNFSFCREEMGEVLKSSTFSAGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCNKSEVRAKFKFSILNAKREETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPEDKLTIFCEVSVVADSVNISGQSNIVQFKVPECKLSEDLGNLFDNEKFSDVTLSVGGREFQAHKAILAARSDVFAAMFEHEMEERKLNRVAITDVDHEVLKEMLRFIYTGKAPNLEKMADDLLAAADKYALEKLKVMCEEALCVNLSVETAAETLILADLHSADQLKAQTIDFINTHATDVMETSGWQNMITTHSHLIAEAFRALATQQIPPIGPPRKRVKMS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q6UVJ0</t>
+          <t>Q86T82</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DKENG</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q9UM11;Q969U6</t>
+          <t>NKENK</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR;MDEGGTPLLPDSLVYQIFLSLGPADVLAAGLVCRQWQAVSRDEFLWREQFYRYYQVARDVPRHPAAMSWYEEFQRLYDTVPCVEVQTLREHTDQVLHLSFSHSGYQFASCSKDCTVKIWSNDLTISLLHSADMRPYNWSYTQFSQFNKDDSLLLASGVFLGPHNSSSGEIAVISLDSFALLSRVRNKPYDVFGCWLTETSLISGNLHRIGDITSCSVLWLNNAFQDVESENVNVVKRLFKIQNLNASTVRTVMVADCSRFDSPDLLLEAGDPATSPCRIFDLGSDNEEVVAGPAPAHAKEGLRHFLDRVLEGRAQPQLSERMLETKVAELLAQGHTKPPERSATGAKSKYLIFTTGCLTYSPHQIGIKQILPHQMTTAGPVLGEGRGSDAFFDALDHVIDIHGHIIGMGLSPDNRYLYVNSRAWPNGAVVADPMQPPPIAEEIDLLVFDLKTMREVRRALRAHRAYTPNDECFFIFLDVSRDFVASGAEDRHGYIWDRHYNICLARLRHEDVVNSVVFSPQEQELLLTASDDATIKAWRSPRTMRVLQAPRPRPRTFFSWLASQRR</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P46531</t>
+          <t>Q12959</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PFLTPSPE</t>
+          <t>Q9Y297</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q96J02;P46934;Q00987;Q969H0</t>
+          <t>DSGLPS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD;MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>O15350</t>
+          <t>P00533</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FEHLWSSL</t>
+          <t>Q9ULV8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q96J02;Q00987;Q969V5;Q16531;P0C2W1;Q9P2P5;Q96PM5;O00308</t>
+          <t>DSFLQRYSSDP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE;MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP;MESGGRPSLCQFILLGTTSVVTAALYSVYRQKARVSQELKGAKKVHLGEDLKSILSEAPGKCVPYAVIEGAVRSVKETLNSQFVENCKGVIQRLTLQEHKMVWNRTTHLWNDCSKIIHQRTNTVPFDLVPHEDGVDVAVRVLKPLDSVDLGLETVYEKFHPSIQSFTDVIGHYISGERPKGIQETEEMLKVGATLTGVGELVLDNNSVRLQPPKQGMQYYLSSQDFDSLLQRQESSVRLWKVLALVFGFATCATLFFILRKQYLQRQERLRLKQMQEEFQEHEAQLLSRAKPEDRESLKSACVVCLSSFKSCVFLECGHVCSCTECYRALPEPKKCPICRQAITRVIPLYNS;MSYNYVVTAQKPTAVNGCVTGHFTSAEDLNLLIAKNTRLEIYVVTAEGLRPVKEVGMYGKIAVMELFRPKGESKDLLFILTAKYNACILEYKQSGESIDIITRAHGNVQDRIGRPSETGIIGIIDPECRMIGLRLYDGLFKVIPLDRDNKELKAFNIRLEELHVIDVKFLYGCQAPTICFVYQDPQGRHVKTYEVSLREKEFNKGPWKQENVEAEASMVIAVPEPFGGAIIIGQESITYHNGDKYLAIAPPIIKQSTIVCHNRVDPNGSRYLLGDMEGRLFMLLLEKEEQMDGTVTLKDLRVELLGETSIAECLTYLDNGVVFVGSRLGDSQLVKLNVDSNEQGSYVVAMETFTNLGPIVDMCVVDLERQGQGQLVTCSGAFKEGSLRIIRNGIGIHEHASIDLPGIKGLWPLRSDPNRETDDTLVLSFVGQTRVLMLNGEEVEETELMGFVDDQQTFFCGNVAHQQLIQITSASVRLVSQEPKALVSEWKEPQAKNISVASCNSSQVVVAVGRALYYLQIHPQELRQISHTEMEHEVACLDITPLGDSNGLSPLCAIGLWTDISARILKLPSFELLHKEMLGGEIIPRSILMTTFESSHYLLCALGDGALFYFGLNIETGLLSDRKKVTLGTQPTVLRTFRSLSTTNVFACSDRPTVIYSSNHKLVFSNVNLKEVNYMCPLNSDGYPDSLALANNSTLTIGTIDEIQKLHIRTVPLYESPRKICYQEVSQCFGVLSSRIEVQDTSGGTTALRPSASTQALSSSVSSSKLFSSSTAPHETSFGEEVEVHNLLIIDQHTFEVLHAHQFLQNEYALSLVSCKLGKDPNTYFIVGTAMVYPEEAEPKQGRIVVFQYSDGKLQTVAEKEVKGAVYSMVEFNGKLLASINSTVRLYEWTTEKELRTECNHYNNIMALYLKTKGDFILVGDLMRSVLLLAYKPMEGNFEEIARDFNPNWMSAVEILDDDNFLGAENAFNLFVCQKDSAATTDEERQHLQEVGLFHLGEFVNVFCHGSLVMQNLGETSTPTQGSVLFGTVNGMIGLVTSLSESWYNLLLDMQNRLNKVIKSVGKIEHSFWRSFHTERKTEPATGFIDGDLIESFLDISRPKMQEVVANLQYDDGSGMKREATADDLIKVVEELTRIH;MAAPAPGAGAASGGAGCSGGGAGAGAGSGSGAAGAGGRLPSRVLELVFSYLELSELRSCALVCKHWYRCLHGDENSEVWRSLCARSLAEEALRTDILCNLPSYKAKIRAFQHAFSTNDCSRNVYIKKNGFTLHRNPIAQSTDGARTKIGFSEGRHAWEVWWEGPLGTVAVIGIATKRAPMQCQGYVALLGSDDQSWGWNLVDNNLLHNGEVNGSFPQCNNAPKYQIGERIRVILDMEDKTLAFERGYEFLGVAFRGLPKVCLYPAVSAVYGNTEVTLVYLGKPLDG;MASSAREHLLFVRRRNPQMRYTLSPENLQSLAAQSSMPENMTLQRANSDTDLVTSESRSSLTASMYEYTLGQAQNLIIFWDIKEEVDPSDWIGLYHIDENSPANFWDSKNRGVTGTQKGQIVWRIEPGPYFMEPEIKICFKYYHGISGALRATTPCITVKNPAVMMGAEGMEGGASGNLHSRKLVSFTLSDLRAVGLKKGMFFNPDPYLKMSIQPGKKSSFPTCAHHGQERRSTIISNTTNPIWHREKYSFFALLTDVLEIEIKDKFAKSRPIIKRFLGKLTIPVQRLLERQAIGDQMLSYNLGRRLPADHVSGYLQFKVEVTSSVHEDASPEAVGTILGVNSVNGDLGSPSDDEDMPGSHHDSQVCSNGPVSEDSAADGTPKHSFRTSSTLEIDTEELTSTSSRTSPPRGRQDSLNDYLDAIEHNGHSRPGTATCSERSMGASPKLRSSFPTDTRLNAMLHIDSDEEDHEFQQDLGYPSSLEEEGGLIMFSRASRADDGSLTSQTKLEDNPVENEEASTHEAASFEDKPENLPELAESSLPAGPAPEEGEGGPEPQPSADQGSAELCGSQEVDQPTSGADTGTSDASGGSRRAVSETESLDQGSEPSQVSSETEPSDPARTESVSEASTRPEGESDLECADSSCNESVTTQLSSVDTRCSSLESARFPETPAFSSQEEEDGACAAEPTSSGPAEGSQESVCTAGSLPVVQVPSGEDEGPGAESATVPDQEELGEVWQRRGSLEGAAAAAESPPQEEGSAGEAQGTCEGATAQEEGATGGSQANGHQPLRSLPSVRQDVSRYQRVDEALPPNWEARIDSHGRIFYVDHVNRTTTWQRPTAPPAPQVLQRSNSIQQMEQLNRRYQSIRRTMTNERPEENTNAIDGAGEEADFHQASADFRRENILPHSTSRSRITLLLQSPPVKFLISPEFFTVLHSNPSAYRMFTNNTCLKHMITKVRRDTHHFERYQHNRDLVGFLNMFANKQLELPRGWEMKHDHQGKAFFVDHNSRTTTFIDPRLPLQSSRPTSALVHRQHLTRQRSHSAGEVGEDSRHAGPPVLPRPSSTFNTVSRPQYQDMVPVAYNDKIVAFLRQPNIFEILQERQPDLTRNHSLREKIQFIRTEGTPGLVRLSSDADLVMLLSLFEEEIMSYVPPHALLHPSYCQSPRGSPVSSPQNSPGTQRANARAPAPYKRDFEAKLRNFYRKLETKGYGQGPGKLKLIIRRDHLLEDAFNQIMGYSRKDLQRNKLYVTFVGEEGLDYSGPSREFFFLVSRELFNPYYGLFEYSANDTYTVQISPMSAFVDNHHEWFRFSGRILGLALIHQYLLDAFFTRPFYKALLRILCDLSDLEYLDEEFHQSLQWMKDNDIHDILDLTFTVNEEVFGQITERELKPGGANIPVTEKNKKEYIERMVKWRIERGVVQQTESLVRGFYEVVDARLVSVFDARELELVIAGTAEIDLSDWRNNTEYRGGYHDNHIVIRWFWAAVERFNNEQRLRLLQFVTGTSSIPYEGFASLRGSNGPRRFCVEKWGKITALPRAHTCFNRLDLPPYPSFSMLYEKLLTAVEETSTFGLE;MAATAREDGASGQERGQRGCEHYDRGCLLKAPCCDKLYTCRLCHDNNEDHQLDRFKVKEVQCINCEKIQHAQQTCEECSTLFGEYYCDICHLFDKDKKQYHCENCGICRIGPKEDFFHCLKCNLCLAMNLQGRHKCIENVSRQNCPICLEDIHTSRVVAHVLPCGHLLHRTCYEEMLKEGYRCPLCMHSALDMTRYWRQLDDEVAQTPMPSEYQNMTVDILCNDCNGRSTVQFHILGMKCKICESYNTAQAGGRRISLDQQ;MASASSSRAGVALPFEKSQLTLKVVSAKPKVHNRQPRINSYVEVAVDGLPSETKKTGKRIGSSELLWNEIIILNVTAQSHLDLKVWSCHTLRNELLGTASVNLSNVLKNNGGKMENMQLTLNLQTENKGSVVSGGELTIFLDGPTVDLGNVPNGSALTDGSQLPSRDSSGTAVAPENRHQPPSTNCFGGRSRTHRHSGASARTTPATGEQSPGARSRHRQPVKNSGHSGLANGTVNDEPTTATDPEEPSVVGVTSPPAAPLSVTPNPNTTSLPAPATPAEGEEPSTSGTQQLPAAAQAPDALPAGWEQRELPNGRVYYVDHNTKTTTWERPLPPGWEKRTDPRGRFYYVDHNTRTTTWQRPTAEYVRNYEQWQSQRNQLQGAMQHFSQRFLYQSSSASTDHDPLGPLPPGWEKRQDNGRVYYVNHNTRTTQWEDPRTQGMIQEPALPPGWEMKYTSEGVRYFVDHNTRTTTFKDPRPGFESGTKQGSPGAYDRSFRWKYHQFRFLCHSNALPSHVKISVSRQTLFEDSFQQIMNMKPYDLRRRLYIIMRGEEGLDYGGIAREWFFLLSHEVLNPMYCLFEYAGKNNYCLQINPASSINPDHLTYFRFIGRFIAMALYHGKFIDTGFTLPFYKRMLNKRPTLKDLESIDPEFYNSIVWIKENNLEECGLELYFIQDMEILGKVTTHELKEGGESIRVTEENKEEYIMLLTDWRFTRGVEEQTKAFLDGFNEVAPLEWLRYFDEKELELMLCGMQEIDMSDWQKSTIYRHYTKNSKQIQWFWQVVKEMDNEKRIRLLQFVTGTCRLPVGGFAELIGSNGPQKFCIDKVGKETWLPRSHTCFNRLDLPPYKSYEQLREKLLYAIEETEGFGQE</t>
+          <t>MALAVAPWGRQWEEARALGRAVRMLQRLEEQCVDPRLSVSPPSLRDLLPRTAQLLREVAHSRRAAGGGGPGGPGGSGDFLLIYLANLEAKSRQVAALLPPRGRRSANDELFRAGSRLRRQLAKLAIIFSHMHAELHALFPGGKYCGHMYQLTKAPAHTFWRESCGARCVLPWAEFESLLGTCHPVEPGCTALALRTTIDLTCSGHVSIFEFDVFTRLFQPWPTLLKNWQLLAVNHPGYMAFLTYDEVQERLQACRDKPGSYIFRPSCTRLGQWAIGYVSSDGSILQTIPANKPLSQVLLEGQKDGFYLYPDGKTHNPDLTELGQAEPQQRIHVSEEQLQLYWAMDSTFELCKICAESNKDVKIEPCGHLLCSCCLAAWQHSDSQTCPFCRCEIKGWEAVSIYQFHGQATAEDSGNSSDQEGRELELGQVPLSAPPLPPRPDLPPRKPRNAQPKVRLLKGNSPPAALGPQDPAPA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P42261</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RFALSQL</t>
+          <t>Q96M02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>P46934</t>
+          <t>FSDLWKLL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+          <t>MLKLSGEGLRDSYHSRRDQIALKNLQSDVTEAKSDFTKETLASQNTKMISSIVISQMIDENKSRENRASLPLPCAIAQSRAHHAKQSLANRSGVNIHRAFALLPGRLGIPAPSDERGPEAELPPKEERPCGGPRRGFASITITARRVGPPARALVWGTAGDSLCPKCRAEDTLFQAPPALANGAHPGRHQRSFACTEFSRNSSVVRLKVPEAHTGLCERRKYWVTHADDKETSFSPDTPLSGKSPLVFSSCVHLRVSQQCPDSIYYVDKSLSVPIEPPQIASPKMHRSVLSLNLNCSSHRLTADGVDGLVNREPISEALKQELLEGDQDLVGQRWNPGLQESHLKETPSLRRVHLGTGACPWSGSFPLENTELANVGANQVTVRKGEKDHTTHCHASDHANQLSIHIPGWSYRAVHTKVFSGSSKRQQGEVCMTVSAPPVEQKPTRHFLPIGDSSPSDDCLSRDLSEPTERRHQSFLKPRILFPGFLCPLQDVCASLQEDNGVQIESKFPKGDYTCCDLVVKIKECKKSEDPTTPEPSPAAPSPAPRDGAGSPGLSEDCSESQQTPARSLTLQEALEVRKPQFISRSQERLKKLEHMVQQRKAQRKEDLRQKQSLLPIRTSKKQFTIPHPLSDNLFKPKERCISEKEMHMRSKRIYDNLPEVKKKKEEQRKRVILQSNRLRAEVFKKQLLDQLLQRNAV</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P19838</t>
+          <t>Q15653</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DSGVETS</t>
+          <t>O95376</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q9Y297;Q9UKB1;Q8TEL6;Q5XPI4;Q8IYM9</t>
+          <t>DSGLGS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MEPDSVIEDKTIELMCSVPRSLWLGCANLVESMCALSCLQSMPSVRCLQISNGTSSVIVSRKRPSEGNYQKEKDLCIKYFDQWSESDQVEFVEHLISRMCHYQHGHINSYLKPMLQRDFITALPEQGLDHIAENILSYLDARSLCAAELVCKEWQRVISEGMLWKKLIERMVRTDPLWKGLSERRGWDQYLFKNRPTDGPPNSFYRSLYPKIIQDIETIESNWRCGRHNLQRIQCRSENSKGVYCLQYDDEKIISGLRDNSIKIWDKTSLECLKVLTGHTGSVLCLQYDERVIVTGSSDSTVRVWDVNTGEVLNTLIHHNEAVLHLRFSNGLMVTCSKDRSIAVWDMASATDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWSTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLQAALDPRAPASTLCLRTLVEHSGRVFRLQFDEFQIISSSHDDTILIWDFLNVPPSAQNETRSPSRTYTYISR;MAAAPVAAGSGAGRGRRSAATVAAWGGWGGRPRPGNILLQLRQGQLTGRGLVRAVQFTETFLTERDKQSKWSGIPQLLLKLHTTSHLHSDFVECQNILKEISPLLSMEAMAFVTEERKLTQETTYPNTYIFDLFGGVDLLVEILMRPTISIRGQKLKISDEMSKDCLSILYNTCVCTEGVTKRLAEKNDFVIFLFTLMTSKKTFLQTATLIEDILGVKKEMIRLDEVPNLSSLVSNFDQQQLANFCRILAVTISEMDTGNDDKHTLLAKNAQQKKSLSLGPSAAEINQAALLSIPGFVERLCKLATRKVSESTGTASFLQELEEWYTWLDNALVLDALMRVANEESEHNQASIVFPPPGASEENGLPHTSARTQLPQSMKIMHEIMYKLEVLYVLCVLLMGRQRNQVHRMIAEFKLIPGLNNLFDKLIWRKHSASALVLHGHNQNCDCSPDITLKIQFLRLLQSFSDHHENKYLLLNNQELNELSAISLKANIPEVEAVLNTDRSLVCDGKRGLLTRLLQVMKKEPAESSFRFWQARAVESFLRGTTSYADQMFLLKRGLLEHILYCIVDSECKSRDVLQSYFDLLGELMKFNVDAFKRFNKYINTDAKFQVFLKQINSSLVDSNMLVRCVTLSLDRFENQVDMKVAEVLSECRLLAYISQVPTQMSFLFRLINIIHVQTLTQENVSCLNTSLVILMLARRKERLPLYLRLLQRMEHSKKYPGFLLNNFHNLLRFWQQHYLHKDKDSTCLENSSCISFSYWKETVSILLNPDRQSPSALVSYIEEPYMDIDRDFTEE;MASKGAGMSFSRKSYRLTSDAEKSRVTGIVQEKLLNDYLNRIFSSSEHAPPAATSRKPLNFQNLPEHLDQLLQVDNEEEESQGQVEGRLGPSTVVLDHTGGFEGLLLVDDDLLGVIGHSNFGTIRSTTCVYKGKWLYEVLISSQGLMQIGWCTISCRFNQEEGVGDTHNSYAYDGNRVRKWNVTTTNYGKAWAAGDIVSCLIDLDDGTLSFCLNGVSLGTAFENLSRGLGMAYFPAISLSFKESVAFNFGSRPLRYPVAGYRPLQDPPSADLVRAQRLLGCFRAVLSVELDPVEGRLLDKESSKWRLRGQPTVLLTLAHIFHHFAPLLRKVYLVEAVLMSFLLGIVEKGTPTQAQSVVHQVLDLLWLFMEDYEVQDCLKQLMMSLLRLYRFSPIVPDLGLQIHYLRLTIAILRHEKSRKFLLSNVLFDVLRSVVFFYIKSPLRVEEAGLQELIPTTWWPHCSSREGKESTEMKEETAEERLRRRAYERGCQRLRKRIEVVEELQVQILKLLLDNKDDNGGEASRYIFLTKFRKFLQENASGRGNMPMLCPPEYMVCFLHRLISALRYYWDEYKASNPHASFSEEAYIPPQVFYNGKVDYFDLQRLGGLLSHLRKTLKDDLASKANIVIDPLELQSTAMDDLDEDEEPAPAMAQRPMQALAVGGPLPLPRPGWLSSPTLGRANRFLSTAAVSLMTPRRPLSTSEKVKVRTLSVEQRTREDIEGSHWNEGLLLGRPPEEPEQPLTENSLLEVLDGAVMMYNLSVHQQLGKMVGVSDDVNEYAMALRDTEDKLRRCPKRRKDILAELTKSQKVFSEKLDHLSRRLAWVHATVYSQEKMLDIYWLLRVCLRTIEHGDRTGSLFAFMPEFYLSVAINSYSALKNYFGPVHSMEELPGYEETLTRLAAILAKHFADARIVGTDIRDSLMQALASYVCYPHSLRAVERIPEEQRIAMVRNLLAPYEQRPWAQTNWILVRLWRGCGFGYRYTRLPHLLKTKLEDANLPSLQKPCPSTLLQQHMADLLQQGPDVAPSFLNSVLNQLNWAFSEFIGMIQEIQQAAERLERNFVDSRQLKVCATCFDLSVSLLRVLEMTITLVPEIFLDWTRPTSEMLLRRLAQLLNQVLNRVTAERNLFDRVVTLRLPGLESVDHYPILVAVTGILVQLLVRGPASEREQATSVLLADPCFQLRSICYLLGQPEPPAPGTALPAPDRKRFSLQSYADYISADELAQVEQMLAHLTSASAQAAAASLPTSEEDLCPICYAHPISAVFQPCGHKSCKACINQHLMNNKDCFFCKTTIVSVEDWEKGANTSTTSSAA;MDFSVKVDIEKEVTCPICLELLTEPLSLDCGHSFCQACITAKIKESVIISRGESSCPVCQTRFQPGNLRPNRHLANIVERVKEVKMSPQEGQKRDVCEHHGKKLQIFCKEDGKVICWVCELSQEHQGHQTFRINEVVKECQEKLQVALQRLIKEDQEAEKLEDDIRQERTAWKNYIQIERQKILKGFNEMRVILDNEEQRELQKLEEGEVNVLDNLAAATDQLVQQRQDASTLISDLQRRLRGSSVEMLQDVIDVMKRSESWTLKKPKSVSKKLKSVFRVPDLSGMLQVLKELTDVQYYWVDVMLNPGSATSNVAISVDQRQVKTVRTCTFKNSNPCDFSAFGVFGCQYFSSGKYYWEVDVSGKIAWILGVHSKISSLNKRKSSGFAFDPSVNYSKVYSRYRPQYGYWVIGLQNTCEYNAFEDSSSSDPKVLTLFMAVPPCRIGVFLDYEAGIVSFFNVTNHGALIYKFSGCRFSRPAYPYFNPWNCLVPMTVCPPSS</t>
+          <t>MSVDMNSQGSDSNEEDYDPNCEEEEEEEEDDPGDIEDYYVGVASDVEQQGADAFDPEEYQFTCLTYKESEGALNEHMTSLASVLKVSHSVAKLILVNFHWQVSEILDRYKSNSAQLLVEARVQPNPSKHVPTSHPPHHCAVCMQFVRKENLLSLACQHQFCRSCWEQHCSVLVKDGVGVGVSCMAQDCPLRTPEDFVFPLLPNEELREKYRRYLFRDYVESHYQLQLCPGADCPMVIRVQEPRARRVQCNRCNEVFCFKCRQMYHAPTDCATIRKWLTKCADDSETANYISAHTKDCPKCNICIEKNGGCNHMQCSKCKHDFCWMCLGDWKTHGSEYYECSRYKENPDIVNQSQQAQAREALKKYLFYFERWENHNKSLQLEAQTYQRIHEKIQERVMNNLGTWIDWQYLQNAAKLLAKCRYTLQYTYPYAYYMESGPRKKLFEYQQAQLEAEIENLSWKVERADSYDRGDLENQMHIAEQRRRTLLKDFHDT</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q15653</t>
+          <t>P00533</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DSGLGS</t>
+          <t>P46934</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q9Y297;O95376</t>
+          <t>DSFLQRYSSDP</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR;MSVDMNSQGSDSNEEDYDPNCEEEEEEEEDDPGDIEDYYVGVASDVEQQGADAFDPEEYQFTCLTYKESEGALNEHMTSLASVLKVSHSVAKLILVNFHWQVSEILDRYKSNSAQLLVEARVQPNPSKHVPTSHPPHHCAVCMQFVRKENLLSLACQHQFCRSCWEQHCSVLVKDGVGVGVSCMAQDCPLRTPEDFVFPLLPNEELREKYRRYLFRDYVESHYQLQLCPGADCPMVIRVQEPRARRVQCNRCNEVFCFKCRQMYHAPTDCATIRKWLTKCADDSETANYISAHTKDCPKCNICIEKNGGCNHMQCSKCKHDFCWMCLGDWKTHGSEYYECSRYKENPDIVNQSQQAQAREALKKYLFYFERWENHNKSLQLEAQTYQRIHEKIQERVMNNLGTWIDWQYLQNAAKLLAKCRYTLQYTYPYAYYMESGPRKKLFEYQQAQLEAEIENLSWKVERADSYDRGDLENQMHIAEQRRRTLLKDFHDT</t>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q13127</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SEGSDDSGL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q24306</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Q24307</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>VDNNTN</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MTELGMELESVRLATFGEWPLNAPVSAEDLVANGFFATGNWLEAECHFCHVRIDRWEYGDQVAERHRRSSPICSMVLAPNHCGNVPRSQESDNEGNSVVDSPESCSCPDLLLEANRLVTFKDWPNPNITPQALAKAGFYYLNRLDHVKCVWCNGVIAKWEKNDNAFEEHKRFFPQCPRVQMGPLIEFATGKNLDELGIQPTTLPLRPKYACVDARLRTFTDWPISNIQPASALAQAGLYYQKIGDQVRCFHCNIGLRSWQKEDEPWFEHAKWSPKCQFVLLAKGPAYVSEVLATTAANASSQPATAPAPTLQADVLMDEAPAKEALALGIDGGVVRNAIQRKLLSSGCAFSTLDELLHDIFDDAGAGAALEVREPPEPSAPFIEPCQATTSKAASVPIPVADSIPAKPQAAEAVANISKITDEIQKMSVATPNGNLSLEEENRQLKDARLCKVCLDEEVGVVFLPCGHLATCNQCAPSVANCPMCRADIKGFVRTFLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>O43597</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P46934</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>IRNTNEYTEGPT</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P98174</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DSGIDS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>P16234</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SIFDNLYTTLSD</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>P26309</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>P53197</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>QYLIR</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MSTNLNPFMNNTPSSSPLKGSESKRVSKRPISSSSSASLLSSPSRRSRPSTVYGDRYIPSRTDIDFNSIVSISSMASVPALNPSSTEDQVEYQKERQAHETYNTLLKNELFGEMLSKDTVGSESSIDRIKNTRPSTRGNVHAENTTRHGYELERVSTPPPEAAGLEEFSPHSTPVTPRRLFTSQQDEITRPSSNSVRGASLLTYQQRKGRRLSAASLLQSQFFDSMSPVRPDSKQLLLSPGKQFRQIAKVPYRVLDAPSLADDFYYSLIDWSSTDVLAVALGKSIFLTDNNTGDVVHLCDTENEYTSLSWIGAGSHLAVGQANGLVEIYDVMKRKCIRTLSGHIDRVACLSWNNHVLTSGSRDHRILHRDVRMPDPFFETIESHTQEVCGLKWNVADNKLASGGNDNVVHVYEGTSKSPILTFDEHKAAVKAMAWSPHKRGVLATGGGTADRRLKIWNVNTSIKMSDIDSGSQICNMVWSKNTNELVTSHGYSKYNLTLWDCNSMDPIAILKGHSFRVLHLTLSNDGTTVVSGAGDETLRYWKLFDKPKAKVQPNSLIFDAFNQIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>P46934</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>P05412</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Q969H0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>EEPQTVPEM</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MNQELLSVGSKRRRTGGSLRGNPSSSQVDEEQMNRVVEEEQQQQLRQQEEEHTARNGEVVGVEPRPGGQNDSQQGQLEENNNRFISVDEDSSGNQEEQEEDEEHAGEQDEEDEEEEEMDQESDDFDQSDDSSREDEHTHTNSVTNSSSIVDLPVHQLSSPFYTKTTKMKRKLDHGSEVRSFSLGKKPCKVSEYTSTTGLVPCSATPTTFGDLRAANGQGQQRRRITSVQPPTGLQEWLKMFQSWSGPEKLLALDELIDSCEPTQVKHMMQVIEPQFQRDFISLLPKELALYVLSFLEPKDLLQAAQTCRYWRILAEDNLLWREKCKEEGIDEPLHIKRRKVIKPGFIHSPWKSAYIRQHRIDTNWRRGELKSPKVLKGHDDHVITCLQFCGNRIVSGSDDNTLKVWSAVTGKCLRTLVGHTGGVWSSQMRDNIIISGSTDRTLKVWNAETGECIHTLYGHTSTVRCMHLHEKRVVSGSRDATLRVWDIETGQCLHVLMGHVAAVRCVQYDGRRVVSGAYDFMVKVWDPETETCLHTLQGHTNRVYSLQFDGIHVVSGSLDTSIRVWDVETGNCIHTLTGHQSLTSGMELKDNILVSGNADSTVKIWDIKTGQCLQTLQGPNKHQSAVTCLQFNKNFVITSSDDGTVKLWDLKTGEFIRNLVTLESGGSGGVVWRIRASNTKLVCAVGSRNGTEETKLLVLDFDVDMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>P51955</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>O60260</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>RKFLSLA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MIVFVRFNSSHGFPVEVDSDTSIFQLKEVVAKRQGVPADQLRVIFAGKELRNDWTVQNCDLDQQSIVHIVQRPWRKGQEMNATGGDDPRNAAGGCEREPQSLTRVDLSSSVLPGDSVGLAVILHTDSRKDSPPAGSPAGRSIYNSFYVYCKGPCQRVQPGKLRVQCSTCRQATLTLTQGPSCWDDVLIPNRMSGECQSPHCPGTSAEFFFKCGAHPTSDKETSVALHLIATNSRNITCITCTDVRSPVLVFQCNSRHVICLDCFHLYCVTRLNDRQFVHDPQLGYSLPCVAGCPNSLIKELHHFRILGEEQYNRYQQYGAEECVLQMGGVLCPRPGCGAGLLPEPDQRKVTCEGGNGLGCGFAFCRECKEAYHEGECSAVFEASGTTTQAYRVDERAAEQARWEAASKETIKKTTKPCPRCHVPVEKNGGCMHMKCPQPQCRLEWCWNCGCEWNRVCMGDHWFDV</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Q38830</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Q570C0</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>QVVGWPPIGLHRM</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>MQKRIALSFPEEVLEHVFSFIQLDKDRNSVSLVCKSWYEIERWCRRKVFIGNCYAVSPATVIRRFPKVRSVELKGKPHFADFNLVPDGWGGYVYPWIEAMSSSYTWLEEIRLKRMVVTDDCLELIAKSFKNFKVLVLSSCEGFSTDGLAAIAATCRNLKELDLRESDVDDVSGHWLSHFPDTYTSLVSLNISCLASEVSFSALERLVTRCPNLKSLKLNRAVPLEKLATLLQRAPQLEELGTGGYTAEVRPDVYSGLSVALSGCKELRCLSGFWDAVPAYLPAVYSVCSRLTTLNLSYATVQSYDLVKLLCQCPKLQRLWVLDYIEDAGLEVLASTCKDLRELRVFPSEPFVMEPNVALTEQGLVSVSMGCPKLESVLYFCRQMTNAALITIARNRPNMTRFRLCIIEPKAPDYLTLEPLDIGFGAIVEHCKDLRRLSLSGLLTDKVFEYIGTYAKKMEMLSVAFAGDSDLGMHHVLSGCDSLRKLEIRDCPFGDKALLANASKLETMRSLWMSSCSVSFGACKLLGQKMPKLNVEVIDERGAPDSRPESCPVERVFIYRTVAGPRFDMPGFVWNMDQDSTMRFSRQIITTNGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Q14807</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Q96EP1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>EKENH</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>MERPEEGKQSPPPQPWGRLLRLGAEEGEPHVLLRKREWTIGRRRGCDLSFPSNKLVSGDHCRIVVDEKSGQVTLEDTSTSGTVINKLKVVKKQTCPLQTGDVIYLVYRKNEPEHNVAYLYESLSEKQGMTQESFEANKENVFHGTKDTSGAGAGRGADPRVPPSSPATQVCFEEPQPSTSTSDLFPTASASSTEPSPAGRERSSSCGSGGGGISPKGSGPSVASDEVSSFASALPDRKTASFSSLEPQDQEDLEPVKKKMRGDGDLDLNGQLLVAQPRRNAQTVHEDVRAAAGKPDKMEETLTCIICQDLLHDCVSLQPCMHTFCAACYSGWMERSSLCPTCRCPVERICKNHILNNLVEAYLIQHPDKSRSEEDVQSMDARNKITQDMLQPKVRRSFSDEEGSSEDLLELSDVDSESSDISQPYVVCRQCPEYRRQAAQPPHCPAPEGEPGAPQALGDAPSTSVSLTTAVQDYVCPLQGSHALCTCCFQPMPDRRAEREQDPRVAPQQCAVCLQPFCHLYWGCTRTGCYGCLAPFCELNLGDKCLDGVLNNNSYESDILKNYLATRGLTWKNMLTESLVALQRGVFLLSDYRVTGDTVLCYCCGLRSFRELTYQYRQNIPASELPVAVTSRPDCYWGRNCRTQVKAHHAMKFNHICEQTRFKN</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Q16236</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Q6ZNA4</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DEETGE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>MSQWTPEYNELYTLKVDMKSEIPSDAPKTQESLKGILLHPEPIGAAKSFPAGVEMINSKVGNEFSHLCDDSQKQEKEMNGNQQEQEKSLVVRKKRKSQQAGPSYVQNCVKENQGILGLRQHLGTPSDEDNDSSFSDCLSSPSSSLHFGDSDTVTSDEDKEVSVRHSQTILNAKSRSHSARSHKWPRTETESVSGLLMKRPCLHGSSLRRLPCRKRFVKNNSSQRTQKQKERILMQRKKREVLARRKYALLPSSSSSSENDLSSESSSSSSTEGEEDLFVSASENHQNNPAVPSGSIDEDVVVIEASSTPQVTANEEINVTSTDSEVEIVTVGESYRSRSTLGHSRSHWSQGSSSHASRPQEPRNRSRISTVIQPLRQNAAEVVDLTVDEDEPTVVPTTSARMESQATSASINNSNPSTSEQASDTASAVTSSQPSTVSETSATLTSNSTTGTSIGDDSRRTTSSAVTETGPPAMPRLPSCCPQHSPCGGSSQNHHALGHPHTSCFQQHGHHFQHHHHHHHTPHPAVPVSPSFSDPACPVERPPQVQAPCGANSSSGTSYHEQQALPVDLSNSGIRSHGSGSFHGASAFDPCCPVSSSRAAIFGHQAAAAAPSQPLSSIDGYGSSMVAQPQPQPPPQPSLSSCRHYMPPPYASLTRPLHHQASACPHSHGNPPPQTQPPPQVDYVIPHPVHAFHSQISSHATSHPVAPPPPTHLASTAAPIPQHLPPTHQPISHHIPATAPPAQRLHPHEVMQRMEVQRRRMMQHPTRAHERPPPHPHRMHPNYGHGHHIHVPQTMSSHPRQAPERSAWELGIEAGVTAATYTPGALHPHLAHYHAPPRLHHLQLGALPLMVPDMAGYPHIRYISSGLDGTSFRGPFRGNFEELIHLEERLGNVNRGASQGTIERCTYPHKYKKVTTDWFSQRKLHCKQDGEEGTEEDTEEKCTICLSILEEGEDVRRLPCMHLFHQVCVDQWLITNKKCPICRVDIEAQLPSES</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>P49757</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Q8N448</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FEAQWAAL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MGTTSDEMVSVEQTSSSSLNPLCFECGQQHWTRENHLYNYQNEVDDDLVCHICLQPLLQPLDTPCGHTFCYKCLRNFLQEKDFCPLDRKRLHFKLCKKSSILVHKLLDKLLVLCPFSSVCKDVMQRCDLEAHLKNRCPGASHRRVALERRKTSRTQAEIENENGPTLLDPAGTLSPEADCLGTGAVPVERHLTSASLSTWSEEPGLDNPAFEESAGADTTQQPLSLPEGEITTIEIHRSNPYIQLGISIVGGNETPLINIVIQEVYRDGVIARDGRLLAGDQILQVNNYNISNVSHNYARAVLSQPCNTLHLTVLRERRFGNRAHNHSDSNSPREEIFQVALHKRDSGEQLGIKLVRRTDEPGVFILDLLEGGLAAQDGRLSSNDRVLAINGHDLKYGTPELAAQIIQASGERVNLTIARPGKPQPGNTIREAGNHSSSSQHHTPPPYYSRPSSHKDLTQCVTCQEKHITVKKEPHESLGMTVAGGRGSKSGELPIFVTSVPPHGCLARDGRIKRGDVLLNINGIDLTNLSHSEAVAMLKASAASPAVALKALEVQIVEEATQNAEEQPSTFSENEYDASWSPSWVMWLGLPSTLHSCHDIVLRRSYLGSWGFSIVGGYEENHTNQPFFIKTIVLGTPAYYDGRLKCGDMIVAVNGLSTVGMSHSALVPMLKEQRNKVTLTVICWPGSLV</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Q9BV68</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MAEASPHPGRYFCHCCSVEIVPRLPDYICPRCESGFIEELPEETRSTENGSAPSTAPTDQSRPPLEHVDQHLFTLPQGYGQFAFGIFDDSFEIPTFPPGAQADDGRDPESRRERDHPSRHRYGARQPRARLTTRRATGRHEGVPTLEGIIQQLVNGIITPATIPSLGPWGVLHSNPMDYAWGANGLDAIITQLLNQFENTGPPPADKEKIQALPTVPVTEEHVGSGLECPVCKDDYALGERVRQLPCNHLFHDGCIVPWLEQHDSCPVCRKSLTGQNTATNPPGLTGVSFSSSSSSSSSSSPSNENATSNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>P53350</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Q53GT1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NRKPLTVLN</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>MAEEQEFTQLCKLPAQPSHPHCVNNTYRSAQHSQALLRGLLALRDSGILFDVVLVVEGRHIEAHRILLAASCDYFRGMFAGGLKEMEQEEVLIHGVSYNAMCQILHFIYTSELELSLSNVQETLVAACQLQIPEIIHFCCDFLMSWVDEENILDVYRLAELFDLSRLTEQLDTYILKNFVAFSRTDKYRQLPLEKVYSLLSSNRLEVSCETEVYEGALLYHYSLEQVQADQISLHEPPKLLETVRFPLMEAEVLQRLHDKLDPSPLRDTVASALMYHRNESLQPSLQSPQTELRSDFQCVVGFGGIHSTPSTVLSDQAKYLNPLLGEWKHFTASLAPRMSNQGIAVLNNFVYLIGGDNNVQGFRAESRCWRYDPRHNRWFQIQSLQQEHADLSVCVVGRYIYAVAGRDYHNDLNAVERYDPATNSWAYVAPLKREVYAHAGATLEGKMYITCGRRGEDYLKETHCYDPGSNTWHTLADGPVRRAWHGMATLLNKLYVIGGSNNDAGYRRDVHQVACYSCTSGQWSSVCPLPAGHGEPGIAVLDNRIYVLGGRSHNRGSRTGYVHIYDVEKDCWEEGPQLDNSISGLAACVLTLPRSLLLEPPRGTPDRSQADPDFASEVMSVSDWEEFDNSSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>P06241</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LIEDNEYTARQG</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>O43521</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>P22681</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>RSPLFIF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MAGNVKKSSGAGGGSGSGGSGSGGLIGLMKDAFQPHHHHHHHLSPHPPGTVDKKMVEKCWKLMDKVVRLCQNPKLALKNSPPYILDLLPDTYQHLRTILSRYEGKMETLGENEYFRVFMENLMKKTKQTISLFKEGKERMYEENSQPRRNLTKLSLIFSHMLAELKGIFPSGLFQGDTFRITKADAAEFWRKAFGEKTIVPWKSFRQALHEVHPISSGLEAMALKSTIDLTCNDYISVFEFDIFTRLFQPWSSLLRNWNSLAVTHPGYMAFLTYDEVKARLQKFIHKPGSYIFRLSCTRLGQWAIGYVTADGNILQTIPHNKPLFQALIDGFREGFYLFPDGRNQNPDLTGLCEPTPQDHIKVTQEQYELYCEMGSTFQLCKICAENDKDVKIEPCGHLMCTSCLTSWQESEGQGCPFCRCEIKGTEPIVVDPFDPRGSGSLLRQGAEGAPSPNYDDDDDERADDTLFMMKELAGAKVERPPSPFSMAPQASLPPVPPRLDLLPQRVCVPSSASALGTASKAASGSLHKDKPLPVPPTLRDLPPPPPPDRPYSVGAESRPQRRPLPCTPGDCPSRDKLPPVPSSRLGDSWLPRPIPKVPVSAPSSSDPWTGRELTNRHSLPFSLPSQMEPRPDVPRLGSTFSLDTSMSMNSSPLVGPECDHPKIKPSSSANAIYSLAARPLPVPKLPPGEQCEGEEDTEYMTPSSRPLRPLDTSQSSRACDCDQQIDSCTYEAMYNIQSQAPSITESSTFGEGNLAAAHANTGPEESENEDDGYDVPKPPVPAVLARRTLSDISNASSSFGWLSLDGDPTTNVTEGSQVPERPPKPFPRRINSERKAGSCQQGSGPAASAATASPQLSSEIENLMSQGYSYQDIQKALVIAQNNIEMAKNILREFVSISSPAHVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>P03372</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>P35869</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AGSTS</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MNSSSANITYASRKRRKPVQKTVKPIPAEGIKSNPSKRHRDRLNTELDRLASLLPFPQDVINKLDKLSVLRLSVSYLRAKSFFDVALKSSPTERNGGQDNCRAANFREGLNLQEGEFLLQALNGFVLVVTTDALVFYASSTIQDYLGFQQSDVIHQSVYELIHTEDRAEFQRQLHWALNPSQCTESGQGIEEATGLPQTVVCYNPDQIPPENSPLMERCFICRLRCLLDNSSGFLAMNFQGKLKYLHGQKKKGKDGSILPPQLALFAIATPLQPPSILEIRTKNFIFRTKHKLDFTPIGCDAKGRIVLGYTEAELCTRGSGYQFIHAADMLYCAESHIRMIKTGESGMIVFRLLTKNNRWTWVQSNARLLYKNGRPDYIIVTQRPLTDEEGTEHLRKRNTKLPFMFTTGEAVLYEATNPFPAIMDPLPLRTKNGTSGKDSATTSTLSKDSLNPSSLLAAMMQQDESIYLYPASSTSSTAPFENNFFNESMNECRNWQDNTAPMGNDTILKHEQIDQPQDVNSFAGGHPGLFQDSKNSDLYSIMKNLGIDFEDIRHMQNEKFFRNDFSGEVDFRDIDLTDEILTYVQDSLSKSPFIPSDYQQQQSLALNSSCMVQEHLHLEQQQQHHQKQVVVEPQQQLCQKMKHMQVNGMFENWNSNQFVPFNCPQQDPQQYNVFTDLHGISQEFPYKSEMDSMPYTQNFISCNQPVLPQHSKCTELDYPMGSFEPSPYPTTSSLEDFVTCLQLPENQKHGLNPQSAIITPQTCYAGAVSMYQCQPEPQHTHVGQMQYNPVLPGQQAFLNKFQNGVLNETYPAELNNINNTQTTTHLQPLHHPSEARPFPDLTSSGFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Q9ULW0</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EKENL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>P46531</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>P46934</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PFLTPSPE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Q07820</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Q7Z6Z7</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>RKALETL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MKVDRTKLKKTPTEAPADCRALIDKLKVCNDEQLLLELQQIKTWNIGKCELYHWVDLLDRFDGILADAGQTVENMSWMLVCDRPEREQLKMLLLAVLNFTALLIEYSFSRHLYSSIEHLTTLLASSDMQVVLAVLNLLYVFSKRSNYITRLGSDKRTPLLTRLQHLAESWGGKENGFGLAECCRDLHMMKYPPSATTLHFEFYADPGAEVKIEKRTTSNTLHYIHIEQLDKISESPSEIMESLTKMYSIPKDKQMLLFTHIRLAHGFSNHRKRLQAVQARLHAISILVYSNALQESANSILYNGLIEELVDVLQITDKQLMEIKAASLRTLTSIVHLERTPKLSSIIDCTGTASYHGFLPVLVRNCIQAMIDPSMDPYPHQFATALFSFLYHLASYDAGGEALVSCGMMEALLKVIKFLGDEQDQITFVTRAVRVVDLITNLDMAAFQSHSGLSIFIYRLEHEVDLCRKECPFVIKPKIQRPNTTQEGEEMETDMDGVQCIPQRAALLKSMLNFLKKAIQDPAFSDGIRHVMDGSLPTSLKHIISNAEYYGPSLFLLATEVVTVFVFQEPSLLSSLQDNGLTDVMLHALLIKDVPATREVLGSLPNVFSALCLNARGLQSFVQCQPFERLFKVLLSPDYLPAMRRRRSSDPLGDTASNLGSAVDELMRHQPTLKTDATTAIIKLLEEICNLGRDPKYICQKPSIQKADGTATAPPPRSNHAAEEASSEDEEEEEVQAMQSFNSTQQNETEPNQQVVGTEERIPIPLMDYILNVMKFVESILSNNTTDDHCQEFVNQKGLLPLVTILGLPNLPIDFPTSAACQAVAGVCKSILTLSHEPKVLQEGLLQLDSILSSLEPLHRPIESPGGSVLLRELACAGNVADATLSAQATPLLHALTAAHAYIMMFVHTCRVGQSEIRSISVNQWGSQLGLSVLSKLSQLYCSLVWESTVLLSLCTPNSLPSGCEFGQADMQKLVPKDEKAGTTQGGKRSDGEQDGAAGSMDASTQGLLEGIGLDGDTLAPMETDEPTASDSKGKSKITPAMAARIKQIKPLLSASSRLGRALAELFGLLVKLCVGSPVRQRRSHHAASTTTAPTPAARSTASALTKLLTKGLSWQPPPYTPTPRFRLTFFICSVGFTSPMLFDERKYPYHLMLQKFLCSGGHNALFETFNWALSMGGKVPVSEGLEHSDLPDGTGEFLDAWLMLVEKMVNPTTVLESPHSLPAKLPGGVQNFPQFSALRFLVVTQKAAFTCIKNLWNRKPLKVYGGRMAESMLAILCHILRGEPVIRERLSKEKEGSRGEEDTGQEEGGSRREPQVNQQQLQQLMDMGFTREHAMEALLNTSTMEQATEYLLTHPPPIMGGVVRDLSMSEEDQMMRAIAMSLGQDIPMDQRAESPEEVACRKEEEERKAREKQEEEEAKCLEKFQDADPLEQDELHTFTDTMLPGCFHLLDELPDTVYRVCDLIMTAIKRNGADYRDMILKQVVNQVWEAADVLIKAALPLTTSDTKTVSEWISQMATLPQASNLATRILLLTLLFEELKLPCAWVVESSGILNVLIKLLEVVQPCLQAAKEQKEVQTPKWITPVLLLIDFYEKTAISSKRRAQMTKYLQSNSNNWRWFDDRSGRWCSYSASNNSTIDSAWKSGETSVRFTAGRRRYTVQFTTMVQVNEETGNRRPVMLTLLRVPRLNKNSKNSNGQELEKTLEESKEMDIKRKENKGNDTPLALESTNTEKETSLEETKIGEILIQGLTEDMVTVLIRACVSMLGVPVDPDTLHATLRLCLRLTRDHKYAMMFAELKSTRMILNLTQSSGFNGFTPLVTLLLRHIIEDPCTLRHTMEKVVRSAATSGAGSTTSGVVSGSLGSREINYILRVLGPAACRNPDIFTEVANCCIRIALPAPRGSGTASDDEFENLRIKGPNAVQLVKTTPLKPSPLPVIPDTIKEVIYDMLNALAAYHAPEEADKSDPKPGVMTQEVGQLLQDMGDDVYQQYRSLTRQSSDFDTQSGFSINSQVFAADGASTETSASGTSQGEASTPEESRDGKKDKEGDRASEEGKQKGKGSKPLMPTSTILRLLAELVRSYVGIATLIANYSYTVGQSELIKEDCSVLAFVLDHLLPHTQNAEDKDTPALARLFLASLAAAGSGTDAQVALVNEVKAALGRALAMAESTEKHARLQAVMCIISTIMESCPSTSSFYSSATAKTQHNGMNNIIRLFLKKGLVNDLARVPHSLDLSSPNMANTVNAALKPLETLSRIVNQPSSLFGSKSASSKNKSEQDAQGASQDSSSNQQDPGEPGEAEVQEEDHDVTQTEVADGDIMDGEAETDSVVIAGQPEVLSSQEMQVENELEDLIDELLERDGGSGNSTIIVSRSGEDESQEDVLMDEAPSNLSQASTLQANREDSMNILDPEDEEEHTQEEDSSGSNEDEDDSQDEEEEEEEDEEDDQEDDEGEEGDEDDDDDGSEMELDEDYPDMNASPLVRFERFDREDDLIIEFDNMFSSATDIPPSPGNIPTTHPLMVRHADHSSLTLGSGSSTTRLTQGIGRSQRTLRQLTANTGHTIHVHYPGNRQPNPPLILQRLLGPSAAADILQLSSSLPLQSRGRARLLVGNDDVHIIARSDDELLDDFFHDQSTATSQAGTLSSIPTALTRWTEECKVLDAESMHDCVSVVKVSIVNHLEFLRDEELEERREKRRKQLAEEETKITDKGKEDKENRDQSAQCTASKSNDSTEQNLSDGTPMPDSYPTTPSSTDAATSESKETLGTLQSSQQQPTLPTPPALGEVPQELQSPAGEGGSSTQLLMPVEPEELGPTRPSGEAETTQMELSPAPTITSLSPERAEDSDALTAVSSQLEGSPMDTSSLASCTLEEAVGDTSAAGSSEQPRAGSSTPGDAPPAVAEVQGRSDGSGESAQPPEDSSPPASSESSSTRDSAVAISGADSRGILEEPLPSTSSEEEDPLAGISLPEGVDPSFLAALPDDIRREVLQNQLGIRPPTRTAPSTNSSAPAVVGNPGVTEVSPEFLAALPPAIQEEVLAQQRAEQQRRELAQNASSDTPMDPVTFIQTLPSDLRRSVLEDMEDSVLAVMPPDIAAEAQALRREQEARQRQLMHERLFGHSSTSALSAILRSPAFTSRLSGNRGVQYTRLAVQRGGTFQMGGSSSHNRPSGSNVDTLLRLRGRLLLDHEALSCLLVLLFVDEPKLNTSRLHRVLRNLCYHAQTRHWVIRSLLSILQRSSESELCIETPKLTTSEEKGKKSSKSCGSSSHENRPLDLLHKMESKSSNQLSWLSVSMDAALGCRTNIFQIQRSGGRKHTEKHASGGSTVHIHPQAAPVVCRHVLDTLIQLAKVFPSHFTQQRTKETNCESDRERGNKACSPCSSQSSSSGICTDFWDLLVKLDNMNVSRKGKNSVKSVPVSAGGEGETSPYSLEASPLGQLMNMLSHPVIRRSSLLTEKLLRLLSLISIALPENKVSEAQANSGSGASSTTTATSTTSTTTTTAASTTPTPPTAPTPVTSAPALVAATAISTIVVAASTTVTTPTTATTTVSISPTTKGSKSPAKVSDGGSSSTDFKMVSSGLTENQLQLSVEVLTSHSCSEEGLEDAANVLLQLSRGDSGTRDTVLKLLLNGARHLGYTLCKQIGTLLAELREYNLEQQRRAQCETLSPDGLPEEQPQTTKLKGKMQSRFDMAENVVIVASQKRPLGGRELQLPSMSMLTSKTSTQKFFLRVLQVIIQLRDDTRRANKKAKQTGRLGSSGLGSASSIQAAVRQLEAEADAIIQMVREGQRARRQQQAATSESSQSEASVRREESPMDVDQPSPSAQDTQSIASDGTPQGEKEKEERPPELPLLSEQLSLDELWDMLGECLKELEESHDQHAVLVLQPAVEAFFLVHATERESKPPVRDTRESQLAHIKDEPPPLSPAPLTPATPSSLDPFFSREPSSMHISSSLPPDTQKFLRFAETHRTVLNQILRQSTTHLADGPFAVLVDYIRVLDFDVKRKYFRQELERLDEGLRKEDMAVHVRRDHVFEDSYRELHRKSPEEMKNRLYIVFEGEEGQDAGGLLREWYMIISREMFNPMYALFRTSPGDRVTYTINPSSHCNPNHLSYFKFVGRIVAKAVYDNRLLECYFTRSFYKHILGKSVRYTDMESEDYHFYQGLVYLLENDVSTLGYDLTFSTEVQEFGVCEVRDLKPNGANILVTEENKKEYVHLVCQMRMTGAIRKQLAAFLEGFYEIIPKRLISIFTEQELELLISGLPTIDIDDLKSNTEYHKYQSNSIQIQWFWRALRSFDQADRAKFLQFVTGTSKVPLQGFAALEGMNGIQKFQIHRDDRSTDRLPSAHTCFNQLDLPAYESFEKLRHMLLLAIQECSEGFGLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Q05086</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MEKLHQCYWKSGEPQSDDIEASRMKRAAAKHLIERYYHQLTEGCGNEACTNEFCASCPTFLRMDNNAAAIKALELYKINAKLCDPHPSKKGASSAYLENSKGAPNNSCSEIKMNKKGARIDFKDVTYLTEEKVYEILELCREREDYSPLIRVIGRVFSSAEALVQSFRKVKQHTKEELKSLQAKDEDKDEDEKEKAACSAAAMEEDSEASSSRIGDSSQGDNNLQKLGPDDVSVDIDAIRRVYTRLLSNEKIETAFLNALVYLSPNVECDLTYHNVYSRDPNYLNLFIIVMENRNLHSPEYLEMALPLFCKAMSKLPLAAQGKLIRLWSKYNADQIRRMMETFQQLITYKVISNEFNSRNLVNDDDAIVAASKCLKMVYYANVVGGEVDTNHNEEDDEEPIPESSELTLQELLGEERRNKKGPRVDPLETELGVKTLDCRKPLIPFEEFINEPLNEVLEMDKDYTFFKVETENKFSFMTCPFILNAVTKNLGLYYDNRIRMYSERRITVLYSLVQGQQLNPYLRLKVRRDHIIDDALVRLEMIAMENPADLKKQLYVEFEGEQGVDEGGVSKEFFQLVVEEIFNPDIGMFTYDESTKLFWFNPSSFETEGQFTLIGIVLGLAIYNNCILDVHFPMVVYRKLMGKKGTFRDLGDSHPVLYQSLKDLLEYEGNVEDDMMITFQISQTDLFGNPMMYDLKENGDKIPITNENRKEFVNLYSDYILNKSVEKQFKAFRRGFHMVTNESPLKYLFRPEEIELLICGSRNLDFQALEETTEYDGGYTRDSVLIREFWEIVHSFTDEQKRLFLQFTTGTDRAPVGGLGKLKMIIAKNGPDTERLPTSHTCFNVLLLPEYSSKEKLKERLLKAITYAKGFGML</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>P34244</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>P07834</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NKENE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>MGSFPLAEFPLRDIPVPYSYRVSGGIASSGSVTALVTAAGTHRNSSTAKTVETEDGEEDIDEYQRKRAAGSGESTPERSDFKRVKHDNHKTLHPVNLQNTGAASVDNDGLHNLTDISNDAEKLLMSVDDGSAAPSTLSVNMGVASHNVAAPTTVNAATITGSDVSNNVNSATINNPMEEGALPLSPTASSPGTTTPLAKTTKTINNNNNIADLIESKDSIISPEYLSDEIFSAINNNLPHAYFKNLLFRLVANMDRSELSDLGTLIKDNLKRDLITSLPFEISLKIFNYLQFEDIINSLGVSQNWNKIIRKSTSLWKKLLISENFVSPKGFNSLNLKLSQKYPKLSQQDRLRLSFLENIFILKNWYNPKFVPQRTTLRGHMTSVITCLQFEDNYVITGADDKMIRVYDSINKKFLLQLSGHDGGVWALKYAHGGILVSGSTDRTVRVWDIKKGCCTHVFKGHNSTVRCLDIVEYKNIKYIVTGSRDNTLHVWKLPKESSVPDHGEEHDYPLVFHTPEENPYFVGVLRGHMASVRTVSGHGNIVVSGSYDNTLIVWDVAQMKCLYILSGHTDRIYSTIYDHERKRCISASMDTTIRIWDLENIWNNGECSYATNSASPCAKILGAMYTLQGHTALVGLLRLSDKFLVSAAADGSIRGWDANDYSRKFSYHHTNLSAITTFYVSDNILVSGSENQFNIYNLRSGKLVHANILKDADQIWSVNFKGKTLVAAVEKDGQSFLEILDFSKASKINYVSNPVNSSSSSLESISTSLGLTRTTIIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>O15350</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Q96PM5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FEHLWSSL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MAATAREDGASGQERGQRGCEHYDRGCLLKAPCCDKLYTCRLCHDNNEDHQLDRFKVKEVQCINCEKIQHAQQTCEECSTLFGEYYCDICHLFDKDKKQYHCENCGICRIGPKEDFFHCLKCNLCLAMNLQGRHKCIENVSRQNCPICLEDIHTSRVVAHVLPCGHLLHRTCYEEMLKEGYRCPLCMHSALDMTRYWRQLDDEVAQTPMPSEYQNMTVDILCNDCNGRSTVQFHILGMKCKICESYNTAQAGGRRISLDQQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Q00987</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>O15350</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Q96J02</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>FEHLWSSL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Q9H000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MSTKQITCRYFMHGVCREGSQCLFSHDLANSKPSTICKYYQKGYCAYGTRCRYDHTRPSAAAGGAVGTMAHSVPSPAFHSPHPPSEVTASIVKTNSHEPGKREKRTLVLRDRNLSGMAERKTQPSMVSNPGSCSDPQPSPEMKPHSYLDAIRSGLDDVEASSSYSNEQQLCPYAAAGECRFGDACVYLHGEVCEICRLQVLHPFDPEQRKAHEKICMLTFEHEMEKAFAFQASQDKVCSICMEVILEKASASERRFGILSNCNHTYCLSCIRQWRCAKQFENPIIKSCPECRVISEFVIPSVYWVEDQNKKNELIEAFKQGMGKKACKYFEQGKGTCPFGSKCLYRHAYPDGRLAEPEKPRKQLSSQGTVRFFNSVRLWDFIENRESRHVPNNEDVDMTELGDLFMHLSGVESSEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Q86TM6</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MFRTAVMMAASLALTGAVVAHAYYLKHQFYPTVVYLTKSSPSMAVLYIQAFVLVFLLGKVMGKVFFGQLRAAEMEHLLERSWYAVTETCLAFTVFRDDFSPRFVALFTLLLFLKCFHWLAEDRVDFMERSPNISWLFHCRIVSLMFLLGILDFLFVSHAYHSILTRGASVQLVFGFEYAILMTMVLTIFIKYVLHSVDLQSENPWDNKAVYMLYTELFTGFIKVLLYMAFMTIMIKVHTFPLFAIRPMYLAMRQFKKAVTDAIMSRRAIRNMNTLYPDATPEELQAMDNVCIICREEMVTGAKRLPCNHIFHTSCLRSWFQRQQTCPTCRMDVLRASLPAQSPPPPEPADQGPPPAPHPPPLLPQPPNFPQGLLPPFPPGMFPLWPPMGPFPPVPPPPSSGEAVAPPSTSAAALSRPSGAATTTAAGTSATAASATASGPGSGSAPEAGPAPGFPFPPPWMGMPLPPPFAFPPMPVPPAGFAGLTPEELRALEGHERQHLEARLQSLRNIHTLLDAAMLQINQYLTVLASLGPPRPATSVNSTEETATTVVAAASSTSIPSSEATTPTPGASPPAPEMERPPAPESVGTEEMPEDGEPDAAELRRRRLQKLESPVAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Q9VHV8</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Q9VFP2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PSSTS</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MFEPYVKIKKKRSVNEIYENENLEQQQHHLQQQQQQPATSDNCCCENGEPQNAPEVATATVAATSVAATSAAATVATGAAASSSSSGNCSRLQQLISTPPVLLRRSSLQQQQHQQQQHHPHTPAATATPPQQQQQQQAAPSVLQQHLGHLNYESGATAAAAATAAAAAATVATSRSGSATLAQHLATPSNILQAAFGSSNLQHILTRSAPSPSSSAISSNNCSSACAGNTHYNGGNSNSGSSSSNSNHHSNSIIASRLFGAASSSSSSSSSSASASSSSVAASSSSSSHHLHSHHSALTNSITNRINQSIRRHLNQQQHHHPLSASSSSASASPSASTSSSSSYQQSSVQQQHYNCAHPAQQQQHHHHHHSSSSSSSSSSSSSHHHHNSSSSSNSNNQQQPQQSPLCLVLLVKCPNSKEFCNAAANFCDKRLPVNECQASQTARVTSNLHASSSTMAVSRVPSPPLPEVNTPVAENWCYTQVKVVKFSYMWTINNFSFCREEMGEVLKSSTFSAGANDKLKWCLRVNPKGLDEESKDYLSLYLLLVSCNKSEVRAKFKFSILNAKREETKAMESQRAYRFVQGKDWGFKKFIRRDFLLDEANGLLPEDKLTIFCEVSVVADSVNISGQSNIVQFKVPECKLSEDLGNLFDNEKFSDVTLSVGGREFQAHKAILAARSDVFAAMFEHEMEERKLNRVAITDVDHEVLKEMLRFIYTGKAPNLEKMADDLLAAADKYALEKLKVMCEEALCVNLSVETAAETLILADLHSADQLKAQTIDFINTHATDVMETSGWQNMITTHSHLIAEAFRALATQQIPPIGPPRKRVKMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>O43521</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Q9C040</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>RSPLFIF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MASEGTNIPSPVVRQIDKQFLICSICLERYKNPKVLPCLHTFCERCLQNYIPAHSLTLSCPVCRQTSILPEKGVAALQNNFFITNLMDVLQRTPGSNAEESSILETVTAVAAGKPLSCPNHDGNVMEFYCQSCETAMCRECTEGEHAEHPTVPLKDVVEQHKASLQVQLDAVNKRLPEIDSALQFISEIIHQLTNQKASIVDDIHSTFDELQKTLNVRKSVLLMELEVNYGLKHKVLQSQLDTLLQGQESIKSCSNFTAQALNHGTETEVLLVKKQMSEKLNELADQDFPLHPRENDQLDFIVETEGLKKSIHNLGTILTTNAVASETVATGEGLRQTIIGQPMSVTITTKDKDGELCKTGNAYLTAELSTPDGSVADGEILDNKNGTYEFLYTVQKEGDFTLSLRLYDQHIRGSPFKLKVIRSADVSPTTEGVKRRVKSPGSGHVKQKAVKRPASMYSTGKRKENPIEDDLIFRVGTKGRNKGEFTNLQGVAASTNGKILIADSNNQCVQIFSNDGQFKSRFGIRGRSPGQLQRPTGVAVHPSGDIIIADYDNKWVSIFSSDGKFKTKIGSGKLMGPKGVSVDRNGHIIVVDNKACCVFIFQPNGKIVTRFGSRGNGDRQFAGPHFAAVNSNNEIIITDFHNHSVKVFNQEGEFMLKFGSNGEGNGQFNAPTGVAVDSNGNIIVADWGNSRIQVFDGSGSFLSYINTSADPLYGPQGLALTSDGHVVVADSGNHCFKVYRYLQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>P14635</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Q9P2N7</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PRTALGDIG</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>MPLKWKTSSPAIWKFPVPVLKTSRSTPLSPAYISLVEEEDQHMKLSLGGSEMGLSSHLQSSKAGPTRIFTSNTHSSVVLQGFDQLRLEGLLCDVTLMPGDTDDAFPVHRVMMASASDYFKAMFTGGMKEQDLMCIKLHGVSKVGLRKIIDFIYTAKLSLNMDNLQDTLEAASFLQILPVLDFCKVFLISGVTLDNCVEVGRIANTYNLTEVDKYVNSFVLKNFPALLSTGEFLKLPFERLAFVLSSNSLKHCTELELFKATCRWLRLEEPRMDFAAKLMKNIRFPLMTPQELINYVQTVDFMRTDNTCVNLLLEASNYQMMPYMQPVMQSDRTAIRSDTTHLVTLGGVLRQQLVVSKELRMYDEKAHEWKSLAPMDAPRYQHGIAVIGNFLYVVGGQSNYDTKGKTAVDTVFRFDPRYNKWMQVASLNEKRTFFHLSALKGYLYAVGGRNAAGELPTVECYNPRTNEWTYVAKMSEPHYGHAGTVYGGVMYISGGITHDTFQKELMCFDPDTDKWIQKAPMTTVRGLHCMCTVGERLYVIGGNHFRGTSDYDDVLSCEYYSPILDQWTPIAAMLRGQSDVGVAVFENKIYVVGGYSWNNRCMVEIVQKYDPDKDEWHKVFDLPESLGGIRACTLTVFPPEETTPSPSRESPLSAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>O15350</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>P0C2W1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>FEHLWSSL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>MAAPAPGAGAASGGAGCSGGGAGAGAGSGSGAAGAGGRLPSRVLELVFSYLELSELRSCALVCKHWYRCLHGDENSEVWRSLCARSLAEEALRTDILCNLPSYKAKIRAFQHAFSTNDCSRNVYIKKNGFTLHRNPIAQSTDGARTKIGFSEGRHAWEVWWEGPLGTVAVIGIATKRAPMQCQGYVALLGSDDQSWGWNLVDNNLLHNGEVNGSFPQCNNAPKYQIGERIRVILDMEDKTLAFERGYEFLGVAFRGLPKVCLYPAVSAVYGNTEVTLVYLGKPLDG</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>P10275</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Q9UNE7</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ASSTT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>MKGKEEKEGGARLGAGGGSPEKSPSAQELKEQGNRLFVGRKYPEAAACYGRAITRNPLVAVYYTNRALCYLKMQQHEQALADCRRALELDGQSVKAHFFLGQCQLEMESYDEAIANLQRAYSLAKEQRLNFGDDIPSALRIAKKKRWNSIEERRIHQESELHSYLSRLIAAERERELEECQRNHEGDEDDSHVRAQQACIEAKHDKYMADMDELFSQVDEKRKKRDIPDYLCGKISFELMREPCITPSGITYDRKDIEEHLQRVGHFDPVTRSPLTQEQLIPNLAMKEVIDAFISENGWVEDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>P24864</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Q9UKT8</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>LLTPPQS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MERKDFETWLDNISVTFLSLTDLQKNETLDHLISLSGAVQLRHLSNNLETLLKRDFLKLLPLELSFYLLKWLDPQTLLTCCLVSKQWNKVISACTEVWQTACKNLGWQIDDSVQDALHWKKVYLKAILRMKQLEDHEAFETSSLIGHSARVYALYYKDGLLCTGSDDLSAKLWDVSTGQCVYGIQTHTCAAVKFDEQKLVTGSFDNTVACWEWSSGARTQHFRGHTGAVFSVDYNDELDILVSGSADFTVKVWALSAGTCLNTLTGHTEWVTKVVLQKCKVKSLLHSPGDYILLSADKYEIKIWPIGREINCKCLKTLSVSEDRSICLQPRLHFDGKYIVCSSALGLYQWDFASYDILRVIKTPEIANLALLGFGDIFALLFDNRYLYIMDLRTESLISRWPLPEYRKSKRGSSFLAGEASWLNGLDGHNDTGLVFATSMPDHSIHLVLWKEHG</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Q15398</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Q9Y3I1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>RKSLSQK</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MRLRVRLLKRTWPLEVPETEPTLGHLRSHLRQSLLCTWGYSSNTRFTITLNYKDPLTGDEETLASYGIVSGDLICLILQDDIPAPNIPSSTDSEHSSLQNNEQPSLATSSNQTSMQDEQPSDSFQGQAAQSGVWNDDSMLGPSQNFEAESIQDNAHMAEGTGFYPSEPMLCSESVEGQVPHSLETLYQSADCSDANDALIVLIHLLMLESGYIPQGTEAKALSMPEKWKLSGVYKLQYMHPLCEGSSATLTCVPLGNLIVVNATLKINNEIRSVKRLQLLPESFICKEKLGENVANIYKDLQKLSRLFKDQLVYPLLAFTRQALNLPDVFGLVVLPLELKLRIFRLLDVRSVLSLSAVCRDLFTASNDPLLWRFLYLRDFRDNTVRVQDTDWKELYRKRHIQRKESPKGRFVMLLPSSTHTIPFYPNPLHPRPFPSSRLPPGIIGGEYDQRPTLPYVGDPISSLIPGPGETPSQFPPLRPRFDPVGPLPGPNPILPGRGGPNDRFPFRPSRGRPTDGRLSFM</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Q9UJT9</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MGANNGKQYGSEGKGSSSISSDVSSSTDHTPTKAQKNVATSEDSDLSMRTLSTPSPALICPPNLPGFQNGRGSSTSSSSITGETVAMVHSPPPTRLTHPLIRLASRPQKEQASIDRLPDHSMVQIFSFLPTNQLCRCARVCRRWYNLAWDPRLWRTIRLTGETINVDRALKVLTRRLCQDTPNVCLMLETVTVSGCRRLTDRGLYTIAQCCPELRRLEVSGCYNISNEAVFDVVSLCPNLEHLDVSGCSKVTCISLTREASIKLSPLHGKQISIRYLDMTDCFVLEDEGLHTIAAHCTQLTHLYLRRCVRLTDEGLRYLVIYCASIKELSVSDCRFVSDFGLREIAKLESRLRYLSIAHCGRVTDVGIRYVAKYCSKLRYLNARGCEGITDHGVEYLAKNCTKLKSLDIGKCPLVSDTGLECLALNCFNLKRLSLKSCESITGQGLQIVAANCFDLQTLNVQDCEVSVEALRFVKRHCKRCVIEHTNPAFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Q5FBB7</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Q9UM11</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>HLSLKDI</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MDQDYERRLLRQIVIQNENTMPRVTEMRRTLTPASSPVSSPSKHGDRFIPSRAGANWSVNFHRINENEKSPSQNRKAKDATSDNGKDGLAYSALLKNELLGAGIEKVQDPQTEDRRLQPSTPEKKGLFTYSLSTKRSSPDDGNDVSPYSLSPVSNKSQKLLRSPRKPTRKISKIPFKVLDAPELQDDFYLNLVDWSSLNVLSVGLGTCVYLWSACTSQVTRLCDLSVEGDSVTSVGWSERGNLVAVGTHKGFVQIWDAAAGKKLSMLEGHTARVGALAWNAEQLSSGSRDRMILQRDIRTPPLQSERRLQGHRQEVCGLKWSTDHQLLASGGNDNKLLVWNHSSLSPVQQYTEHLAAVKAIAWSPHQHGLLASGGGTADRCIRFWNTLTGQPLQCIDTGSQVCNLAWSKHANELVSTHGYSQNQILVWKYPSLTQVAKLTGHSYRVLYLAMSPDGEAIVTGAGDETLRFWNVFSKTRSTKVKWESVSVLNLFTRIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>P05412</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Q7L5Y6</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>EEPQTVPEM</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MDHHVSTIKPRRIQNQNVIHRLERRRISSGKAGTHWHQVRVFHQNVFPNFTVVNVEKPPCFLRKFSPDGRYFIAFSSDQTSLEIYEYQGCQAAEDLLQGYEGEILSNGNDQRSVNIRGRLFERFFVLLHITNVAANGEHLNRECSLFTDDCRCVIVGSAAYLPDEPHPPFFEVYRNSESVTPNPRSPLEDYSLHIIDLHTGRLCDTRTFKCDKVVLSHNQGLYLYKNILAILSVQQQTIHVFQVTPEGTFIDVRTIGRFCYEDDLLTVSAVFPEVQRDSQTGMANPFRDPFINSLKHRLLVYLWRRAEQDGSAMAKRRFFQYFDQLRQLRMWKMQLLDENHLFIKYTSEDVVTLRVTDPSQASFFVVYNMVTTEVIAVFENTSDELLELFENFCDLFRNATLHSEVQFPCSASSNNFARQIQRRFKDTIINAKYGGHTEAVRRLLGQLPISAQSYSGSPYLDLSLFSYDDKWVSVMERPKTCGDHPIRFYARDSGLLKFEIQAGLLGRPINHTVRRLVAFTFHPFEPFAISVQRTNAEYVVNFHMRHCCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>P30304</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NKENE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Q96GD4</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Q9UJP4</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RLPLAQV</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MERPAPLAVLPFSDPAHALSLLRGLSQLRAERKFLDVTLEAAGGRDFPAHRAVLAAASPYFRAMFAGQLRESRAERVRLHGVPPDMLQLLLDFSYTGRVAVSGDNAEPLLRAADLLQFPAVKEACGAFLQQQLDLANCLDMQDFAEAFSCSGLASAAQRFILRHVGELGAEQLERLPLARLLRYLRDDGLCVPKEEAAYQLALRWVRADPPRRAAHWPQLLEAVRLPFVRRFYLLAHVEAEPLVARCPPCLRLLREARDFQAARYDRHDRGPCPRMRPRPSTGLAEILVLVGGCDQDCDELVTVDCYNPQTGQWRYLAEFPDHLGGGYSIVALGNDIYVTGGSDGSRLYDCVWRYNSSVNEWAEVAPMLKAREYHSSSVLDGLLYVVAADSTERYDHTTDSWEALQPMTYPMDNCSTTACRGRLYAIGSLAGKETMVMQCYDPDTDLWSLVDCGQLPPWSFAPKTATLNGLMYFVRDDSAEVDVYNPTRNEWDKIPSMNQVHVGGSLAVLGGKLYVSGGYDNTFELSDVVEAYDPETRAWSVVGRLPEPTFWHGSVSIFRQFMPQTFSGGRGFELDSGSDDMDPGRPRPPRDPDELH</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Q99741</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Q9NZJ0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RKRLGDD</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MLFNSVLRQPQLGVLRNGWSSQYPLQSLLTGYQCSGNDEHTSYGETGVPVPPFGCTFSSAPNMEHVLAVANEEGFVRLYNTESQSFRKKCFKEWMAHWNAVFDLAWVPGELKLVTAAGDQTAKFWDVKAGELIGTCKGHQCSLKSVAFSKFEKAVFCTGGRDGNIMVWDTRCNKKDGFYRQVNQISGAHNTSDKQTPSKPKKKQNSKGLAPSVDFQQSVTVVLFQDENTLVSAGAVDGIIKVWDLRKNYTAYRQEPIASKSFLYPGSSTRKLGYSSLILDSTGSTLFANCTDDNIYMFNMTGLKTSPVAIFNGHQNSTFYVKSSLSPDDQFLVSGSSDEAAYIWKVSTPWQPPTVLLGHSQEVTSVCWCPSDFTKIATCSDDNTLKIWRLNRGLEEKPGGDKLSTVGWASQKKKESRPGLVTVTSSQSTPAKAPRAKCNPSNSSPSSAACAPSCAGDLPLPSNTPTFSIKTSPAKARSPINRRGSVSSVSPKPPSSFKMSIRNWVTRTPSSSPPITPPASETKIMSPRKALIPVSQKSSQAEACSESRNRVKRRLDSSCLESVKQKCVKSCNCVTELDGQVENLHLDLCCLAGNQEDLSKDSLGPTKSSKIEGAGTSISEPPSPISPYASESCGTLPLPLRPCGEGSEMVGKENSSPENKNWLLAMAAKRKAENPSPRSPSSQTPNSRRQSGKKLPSPVTITPSSMRKICTYFHRKSQEDFCGPEHSTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>P03372</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Q9BZR9</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>AGSTS</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>MAENWKNCFEEELICPICLHVFVEPVQLPCKHNFCRGCIGEAWAKDSGLVRCPECNQAYNQKPGLEKNLKLTNIVEKFNALHVEKPPAALHCVFCRRGPPLPAQKVCLRCEAPCCQSHVQTHLQQPSTARGHLLVEADDVRAWSCPQHNAYRLYHCEAEQVAVCQYCCYYSGAHQGHSVCDVEIRRNEIRKMLMKQQDRLEEREQDIEDQLYKLESDKRLVEEKVNQLKEEVRLQYEKLHQLLDEDLRQTVEVLDKAQAKFCSENAAQALHLGERMQEAKKLLGSLQLLFDKTEDVSFMKNTKSVKILMDRTQTCTSSSLSPTKIGHLNSKLFLNEVAKKEKQLRKMLEGPFSTPVPFLQSVPLYPCGVSSSGAEKRKHSTAFPEASFLETSSGPVGGQYGAAGTASGEGQSGQPLGPCSSTQHLVALPGGAQPVHSSPVFPPSQYPNGSAAQQPMLPQYGGRKILVCSVDNCYCSSVANHGGHQPYPRSGHFPWTVPSQEYSHPLPPTPSVPQSLPSLAVRDWLDASQQPGHQDFYRVYGQPSTKHYVTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>P49918</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PLISDFFAKRKRS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>P43146</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>O43255</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>IPTACVRPT</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>P10071</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Q9Y297</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ALSSS</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MDPAEAVLQEKALKFMCSMPRSLWLGCSSLADSMPSLRCLYNPGTGALTAFQNSSEREDCNNGEPPRKIIPEKNSLRQTYNSCARLCLNQETVCLASTAMKTENCVAKTKLANGTSSMIVPKQRKLSASYEKEKELCVKYFEQWSESDQVEFVEHLISQMCHYQHGHINSYLKPMLQRDFITALPARGLDHIAENILSYLDAKSLCAAELVCKEWYRVTSDGMLWKKLIERMVRTDSLWRGLAERRGWGQYLFKNKPPDGNAPPNSFYRALYPKIIQDIETIESNWRCGRHSLQRIHCRSETSKGVYCLQYDDQKIVSGLRDNTIKIWDKNTLECKRILTGHTGSVLCLQYDERVIITGSSDSTVRVWDVNTGEMLNTLIHHCEAVLHLRFNNGMMVTCSKDRSIAVWDMASPTDITLRRVLVGHRAAVNVVDFDDKYIVSASGDRTIKVWNTSTCEFVRTLNGHKRGIACLQYRDRLVVSGSSDNTIRLWDIECGACLRVLEGHEELVRCIRFDNKRIVSGAYDGKIKVWDLVAALDPRAPAGTLCLRTLVEHSGRVFRLQFDEFQIVSSSHDDTILIWDFLNDPAAQAEPPRSPSRTYTYISR</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>O75367</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Q8IYW5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ADSTT</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MALPKDAIPSLSECQCGICMEILVEPVTLPCNHTLCKPCFQSTVEKASLCCPFCRRRVSSWTRYHTRRNSLVNVELWTIIQKHYPRECKLRASGQESEEVADDYQPVRLLSKPGELRREYEEEISKVAAERRASEEEENKASEEYIQRLLAEEEEEEKRQAEKRRRAMEEQLKSDEELARKLSIDINNFCEGSISASPLNSRKSDPVTPKSEKKSKNKQRNTGDIQKYLTPKSQFGSASHSEAVQEVRKDSVSKDIDSSDRKSPTGQDTEIEDMPTLSPQISLGVGEQGADSSIESPMPWLCACGAEWYHEGNVKTRPSNHGKELCVLSHERPKTRVPYSKETAVMPCGRTESGCAPTSGVTQTNGNNTGETENEESCLLISKEISKRKNQESSFEAVKDPCFSAKRRKVSPESSPDQEETEINFTQKLIDLEHLLFERHKQEEQDRLLALQLQKEVDKEQMVPNRQKGSPDEYHLRATSSPPDKVLNGQRKNPKDGNFKRQTHTKHPTPERGSRDKNRQVSLKMQLKQSVNRRKMPNSTRDHCKVSKSAHSLQPSISQKSVFQMFQRCTK</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Q99618</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MGSAKSVPVTPARPPPHNKHLARVADPRSPSAGILRTPIQVESSPQPGLPAGEQLEGLKHAQDSDPRSPTLGIARTPMKTSSGDPPSPLVKQLSEVFETEDSKSNLPPEPVLPPEAPLSSELDLPLGTQLSVEEQMPPWNQTEFPSKQVFSKEEARQPTETPVASQSSDKPSRDPETPRSSGSMRNRWKPNSSKVLGRSPLTILQDDNSPGTLTLRQGKRPSPLSENVSELKEGAILGTGRLLKTGGRAWEQGQDHDKENQHFPLVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Q96RU7</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Q8IUQ4</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RKKLVLE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Q15303</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>P46934</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>RMKLPSP</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>P01106</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>P46934</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LLPTPPLS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>MAQSLRLHFAARRSNTYPLSETSGDDLDSHVHMCFKRPTRISTSNVVQMKLTPRQTALAPLIKENVQSQERSSVPSSENVNKKSSCLQISLQPTRYSGYLQSSNVLADSDDASFTCILKDGIYSSAVVDNELNAVNDGHLVSSPAICSGSLSNFSTSDNGSYSSNGSDFGSCASITSGGSYTNSVISDSSSYTFPPSDDTFLGGNLPSDSTSNRSVPNRNTTPCEIFSRSTSTDPFVQDDLEHGLEIMKLPVSRNTKIPLKRYSSLVIFPRSPSTTRPTSPTSLCTLLSKGSYQTSHQFIISPSEIAHNEDGTSAKGFLSTAVNGLRLSKTICTPGEVRDIRPLHRKGSLQKKIVLSNNTPRQTVCEKSSEGYSCVSVHFTQRKAATLDCETTNGDCKPEMSEIKLNSDSEYIKLMHRTSACLPSSQNVDCQININGELERPHSQMNKNHGILRRSISLGGAYPNISCLSSLKHNCSKGGPSQLLIKFASGNEGKVDNLSRDSNRDCTNELSNSCKTRDDFLGQVDVPLYPLPTENPRLERPYTFKDFVLHPRSHKSRVKGYLRLKMTYLPKTSGSEDDNAEQAEELEPGWVVLDQPDAACHLQQQQEPSPLPPGWEERQDILGRTYYVNHESRRTQWKRPTPQDNLTDAENGNIQLQAQRAFTTRRQISEETESVDNRESSENWEIIREDEATMYSNQAFPSPPPSSNLDVPTHLAEELNARLTIFGNSAVSQPASSSNHSSRRGSLQAYTFEEQPTLPVLLPTSSGLPPGWEEKQDERGRSYYVDHNSRTTTWTKPTVQATVETSQLTSSQSSAGPQSQASTSDSGQQVTQPSEIEQGFLPKGWEVRHAPNGRPFFIDHNTKTTTWEDPRLKIPAHLRGKTSLDTSNDLGPLPPGWEERTHTDGRIFYINHNIKRTQWEDPRLENVAITGPAVPYSRDYKRKYEFFRRKLKKQNDIPNKFEMKLRRATVLEDSYRRIMGVKRADFLKARLWIEFDGEKGLDYGGVAREWFFLISKEMFNPYYGLFEYSATDNYTLQINPNSGLCNEDHLSYFKFIGRVAGMAVYHGKLLDGFFIRPFYKMMLHKPITLHDMESVDSEYYNSLRWILENDPTELDLRFIIDEELFGQTHQHELKNGGSEIVVTNKNKKEYIYLVIQWRFVNRIQKQMAAFKEGFFELIPQDLIKIFDENELELLMCGLGDVDVNDWREHTKYKNGYSANHQVIQWFWKAVLMMDSEKRIRLLQFVTGTSRVPMNGFAELYGSNGPQSFTVEQWGTPEKLPRAHTCFNRLDLPPYESFEELWDKLQMAIENTQGFDGVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Q8IUQ4</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DSGIHS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MSRQTATALPTGTSKCPPSQRVPALTGTTASNNDLASLFECPVCFDYVLPPILQCQSGHLVCSNCRPKLTCCPTCRGPLGSIRNLAMEKVANSVLFPCKYASSGCEITLPHTEKADHEELCEFRPYSCPCPGASCKWQGSLDAVMPHLMHQHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGFHFMLVLEKQEKYDGHQQFFAIVQLIGTRKQAENFAYRLELNGHRRRLTWEATPRSIHEGIATAIMNSDCLVFDTSIAQLFAENGNLGINVTISMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Q16665</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>P40337</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>LAPAAGDTIISLDF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MPRRAENWDEAEVGAEEAGVEEYGPEEDGGEESGAEESGPEESGPEELGAEEEMEAGRPRPVLRSVNSREPSQVIFCNRSPRVVLPVWLNFDGEPQPYPTLPPGTGRRIHSYRGHLWLFRDAGTHDGLLVNQTELFVPSLNVDGQPIFANITLPVYTLKERCLQVVRSLVKPENYRRLDIVRSLYEDLEDHPNVQKDLERLTQERIAHQRMGD</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>O75553</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>O14512</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PPVAQVMPG</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MVFRNVGRPPEEEDVEAAPEPGPSELLCPRHRCALDPKALPPGLALERTWGPAAGLEAQLAALGLGQPAGPGVKTVGGGCCPCPCPPQPPPPQPQPPAAAPQAGEDPTETSDALLVLEGLESEAESLETNSCSEEELSSPGRGGGGGGRLLLQPPGPELPPVPFPLQDLVPLGRLSRGEQQQQQQQQPPPPPPPPGPLRPLAGPSRKGSFKIRLSRLFRTKSCNGGSGGGDGTGKRPSGELAASAASLTDMGGSAGRELDAGRKPKLTRTQSAFSPVSFSPLFTGETVSLVDVDISQRGLTSPHPPTPPPPPRRSLSLLDDISGTLPTSVLVAPMGSSLQSFPLPPPPPPHAPDAFPRIAPIRAAESLHSQPPQHLQCPLYRPDSSSFAASLRELEKCGWYWGPMNWEDAEMKLKGKPDGSFLVRDSSDPRYILSLSFRSQGITHHTRMEHYRGTFSLWCHPKFEDRCQSVVEFIKRAIMHSKNGKFLYFLRSRVPGLPPTPVQLLYPVSRFSNVKSLQHLCRFRIRQLVRIDHIPDLPLPKPLISYIRKFYYYDPQEEVYLSLKEAQLISKQKQEVEPST</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Q9H211</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Q13309</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>RRVTDFFARRRP</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MHRKHLQEIPDLSSNVATSFTWGWDSSKTSELLSGMGVSALEKEEPDSENIPQELLSNLGHPESPPRKRLKSKGSDKDFVIVRRPKLNRENFPGVSWDSLPDELLLGIFSCLCLPELLKVSGVCKRWYRLASDESLWQTLDLTGKNLHPDVTGRLLSQGVIAFRCPRSFMDQPLAEHFSPFRVQHMDLSNSVIEVSTLHGILSQCSKLQNLSLEGLRLSDPIVNTLAKNSNLVRLNLSGCSGFSEFALQTLLSSCSRLDELNLSWCFDFTEKHVQVAVAHVSETITQLNLSGYRKNLQKSDLSTLVRRCPNLVHLDLSDSVMLKNDCFQEFFQLNYLQHLSLSRCYDIIPETLLELGEIPTLKTLQVFGIVPDGTLQLLKEALPHLQINCSHFTTIARPTIGNKKNQEIWGIKCRLTLQKPSCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Q9LVI4</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>O04197</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>LARKASLARFLEKRKERV</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MEDPDIKRCKLSCVATVDDVIEQVMTYITDPKDRDSASLVCRRWFKIDSETREHVTMALCYTATPDRLSRRFPNLRSLKLKGKPRAAMFNLIPENWGGYVTPWVTEISNNLRQLKSVHFRRMIVSDLDLDRLAKARADDLETLKLDKCSGFTTDGLLSIVTHCRKIKTLLMEESSFSEKDGKWLHELAQHNTSLEVLNFYMTEFAKISPKDLETIARNCRSLVSVKVGDFEILELVGFFKAAANLEEFCGGSLNEDIGMPEKYMNLVFPRKLCRLGLSYMGPNEMPILFPFAAQIRKLDLLYALLETEDHCTLIQKCPNLEVLETRNVIGDRGLEVLAQYCKQLKRLRIERGADEQGMEDEEGLVSQRGLIALAQGCQELEYMAVYVSDITNESLESIGTYLKNLCDFRLVLLDREERITDLPLDNGVRSLLIGCKKLRRFAFYLRQGGLTDLGLSYIGQYSPNVRWMLLGYVGESDEGLMEFSRGCPNLQKLEMRGCCFSERAIAAAVTKLPSLRYLWVQGYRASMTGQDLMQMARPYWNIELIPSRRVPEVNQQGEIREMEHPAHILAYYSLAGQRTDCPTTVRVLKEPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Q9H4A3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Q9UH77</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>EPEEPEADQH</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MEGESVKLSSQTLIQAGDDEKNQRTITVNPAHMGKAFKVMNELRSKQLLCDVMIVAEDVEIEAHRVVLAACSPYFCAMFTGDMSESKAKKIEIKDVDGQTLSKLIDYIYTAEIEVTEENVQVLLPAASLLQLMDVRQNCCDFLQSQLHPTNCLGIRAFADVHTCTDLLQQANAYAEQHFPEVMLGEEFLSLSLDQVCSLISSDKLTVSSEEKVFEAVISWINYEKETRLEHMAKLMEHVRLPLLPRDYLVQTVEEEALIKNNNTCKDFLIEAMKYHLLPLDQRLLIKNPRTKPRTPVSLPKVMIVVGGQAPKAIRSVECYDFEEDRWDQIAELPSRRCRAGVVFMAGHVYAVGGFNGSLRVRTVDVYDGVKDQWTSIASMQERRSTLGAAVLNDLLYAVGGFDGSTGLASVEAYSYKTNEWFFVAPMNTRRSSVGVGVVEGKLYAVGGYDGASRQCLSTVEQYNPATNEWIYVADMSTRRSGAGVGVLSGQLYATGGHDGPLVRKSVEVYDPGTNTWKQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPVTDKWTLLPTNMSTGRSYAGVAVIHKSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>O95863</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Q00987</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DSGKGS</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>P03372</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Q05086</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>AGSTS</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MEKLHQCYWKSGEPQSDDIEASRMKRAAAKHLIERYYHQLTEGCGNEACTNEFCASCPTFLRMDNNAAAIKALELYKINAKLCDPHPSKKGASSAYLENSKGAPNNSCSEIKMNKKGARIDFKDVTYLTEEKVYEILELCREREDYSPLIRVIGRVFSSAEALVQSFRKVKQHTKEELKSLQAKDEDKDEDEKEKAACSAAAMEEDSEASSSRIGDSSQGDNNLQKLGPDDVSVDIDAIRRVYTRLLSNEKIETAFLNALVYLSPNVECDLTYHNVYSRDPNYLNLFIIVMENRNLHSPEYLEMALPLFCKAMSKLPLAAQGKLIRLWSKYNADQIRRMMETFQQLITYKVISNEFNSRNLVNDDDAIVAASKCLKMVYYANVVGGEVDTNHNEEDDEEPIPESSELTLQELLGEERRNKKGPRVDPLETELGVKTLDCRKPLIPFEEFINEPLNEVLEMDKDYTFFKVETENKFSFMTCPFILNAVTKNLGLYYDNRIRMYSERRITVLYSLVQGQQLNPYLRLKVRRDHIIDDALVRLEMIAMENPADLKKQLYVEFEGEQGVDEGGVSKEFFQLVVEEIFNPDIGMFTYDESTKLFWFNPSSFETEGQFTLIGIVLGLAIYNNCILDVHFPMVVYRKLMGKKGTFRDLGDSHPVLYQSLKDLLEYEGNVEDDMMITFQISQTDLFGNPMMYDLKENGDKIPITNENRKEFVNLYSDYILNKSVEKQFKAFRRGFHMVTNESPLKYLFRPEEIELLICGSRNLDFQALEETTEYDGGYTRDSVLIREFWEIVHSFTDEQKRLFLQFTTGTDRAPVGGLGKLKMIIAKNGPDTERLPTSHTCFNVLLLPEYSSKEKLKERLLKAITYAKGFGML</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Q12959</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Q05086</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DSGLPS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MEKLHQCYWKSGEPQSDDIEASRMKRAAAKHLIERYYHQLTEGCGNEACTNEFCASCPTFLRMDNNAAAIKALELYKINAKLCDPHPSKKGASSAYLENSKGAPNNSCSEIKMNKKGARIDFKDVTYLTEEKVYEILELCREREDYSPLIRVIGRVFSSAEALVQSFRKVKQHTKEELKSLQAKDEDKDEDEKEKAACSAAAMEEDSEASSSRIGDSSQGDNNLQKLGPDDVSVDIDAIRRVYTRLLSNEKIETAFLNALVYLSPNVECDLTYHNVYSRDPNYLNLFIIVMENRNLHSPEYLEMALPLFCKAMSKLPLAAQGKLIRLWSKYNADQIRRMMETFQQLITYKVISNEFNSRNLVNDDDAIVAASKCLKMVYYANVVGGEVDTNHNEEDDEEPIPESSELTLQELLGEERRNKKGPRVDPLETELGVKTLDCRKPLIPFEEFINEPLNEVLEMDKDYTFFKVETENKFSFMTCPFILNAVTKNLGLYYDNRIRMYSERRITVLYSLVQGQQLNPYLRLKVRRDHIIDDALVRLEMIAMENPADLKKQLYVEFEGEQGVDEGGVSKEFFQLVVEEIFNPDIGMFTYDESTKLFWFNPSSFETEGQFTLIGIVLGLAIYNNCILDVHFPMVVYRKLMGKKGTFRDLGDSHPVLYQSLKDLLEYEGNVEDDMMITFQISQTDLFGNPMMYDLKENGDKIPITNENRKEFVNLYSDYILNKSVEKQFKAFRRGFHMVTNESPLKYLFRPEEIELLICGSRNLDFQALEETTEYDGGYTRDSVLIREFWEIVHSFTDEQKRLFLQFTTGTDRAPVGGLGKLKMIIAKNGPDTERLPTSHTCFNVLLLPEYSSKEKLKERLLKAITYAKGFGML</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Q9UER7</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Q00987</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ADSST</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MCNTNMSVPTDGAVTTSQIPASEQETLVRPKPLLLKLLKSVGAQKDTYTMKEVLFYLGQYIMTKRLYDEKQQHIVYCSNDLLGDLFGVPSFSVKEHRKIYTMIYRNLVVVNQQESSDSGTSVSENRCHLEGGSDQKDLVQELQEEKPSSSHLVSRPSTSSRRRAISETEENSDELSGERQRKRHKSDSISLSFDESLALCVIREICCERSSSSESTGTPSNPDLDAGVSEHSGDWLDQDSVSDQFSVEFEVESLDSEDYSLSEEGQELSDEDDEVYQVTVYQAGESDTDSFEEDPEISLADYWKCTSCNEMNPPLPSHCNRCWALRENWLPEDKGKDKGEISEKAKLENSTQAEEGFDVPDCKKTIVNDSRESCVEENDDKITQASQSQESEDYSQPSTSSSIIYSSQEDVKEFEREETQDKEESVESSLPLNAIEPCVICQGRPKNGCIVHGKTGHLMACFTCAKKLKKRNKPCPVCRQPIQMIVLTYFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>P38936</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Q96PU4</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>RDELGGG</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MWIQVRTIDGSKTCTIEDVSRKATIEELRERVWALFDVRPECQRLFYRGKQLENGYTLFDYDVGLNDIIQLLVRPDPDHLPGTSTQIEAKPCSNSPPKVKKAPRVGPSNQPSTSARARLIDPGFGIYKVNELVDARDVGLGAWFEAHIHSVTRASDGQSRGKTPLKNGSSCKRTNGNIKHKSKENTNKLDSVPSTSNSDCVAADEDVIYHIQYDEYPESGTLEMNVKDLRPRARTILKWNELNVGDVVMVNYNVESPGQRGFWFDAEITTLKTISRTKKELRVKIFLGGSEGTLNDCKIISVDEIFKIERPGAHPLSFADGKFLRRNDPECDLCGGDPEKKCHSCSCRVCGGKHEPNMQLLCDECNVAYHIYCLNPPLDKVPEEEYWYCPSCKTDSSEVVKAGERLKMSKKKAKMPSASTESRRDWGRGMACVGRTRECTIVPSNHYGPIPGIPVGSTWRFRVQVSEAGVHRPHVGGIHGRSNDGAYSLVLAGGFADEVDRGDEFTYTGSGGKNLAGNKRIGAPSADQTLTNMNRALALNCDAPLDDKIGAESRNWRAGKPVRVIRSFKGRKISKYAPEEGNRYDGIYKVVKYWPEISSSHGFLVWRYLLRRDDVEPAPWTSEGIERSRRLCLRLQYPAGYPSDKEGKKPKGQSKKQPSGTTKRPISDDDCPSASKVYKASDSAEAIEAFQLTPQQQHLIREDCQNQKLWDEVLSHLVEGPNFLKKLEQSFMCVCCQELVYQPVTTECFHNVCKDCLQRSFKAQVFSCPACRHDLGQNYIMIPNEILQTLLDLFFPGYSKGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>O24646</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>P43254</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>EEIRRVPEF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MEEISTDPVVPAVKPDPRTSSVGEGANRHENDDGGSGGSEIGAPDLDKDLLCPICMQIIKDAFLTACGHSFCYMCIITHLRNKSDCPCCSQHLTNNQLYPNFLLDKLLKKTSARHVSKTASPLDQFREALQRGCDVSIKEVDNLLTLLAERKRKMEQEEAERNMQILLDFLHCLRKQKVDELNEVQTDLQYIKEDINAVERHRIDLYRARDRYSVKLRMLGDDPSTRNAWPHEKNQIGFNSNSLSIRGGNFVGNYQNKKVEGKAQGSSHGLPKKDALSGSDSQSLNQSTVSMARKKRIHAQFNDLQECYLQKRRQLADQPNSKQENDKSVVRREGYSNGLADFQSVLTTFTRYSRLRVIAEIRHGDIFHSANIVSSIEFDRDDELFATAGVSRCIKVFDFSSVVNEPADMQCPIVEMSTRSKLSCLSWNKHEKNHIASSDYEGIVTVWDVTTRQSLMEYEEHEKRAWSVDFSRTEPSMLVSGSDDCKVKVWCTRQEASVINIDMKANICCVKYNPGSSNYIAVGSADHHIHYYDLRNISQPLHVFSGHKKAVSYVKFLSNNELASASTDSTLRLWDVKDNLPVRTFRGHTNEKNFVGLTVNSEYLACGSETNEVYVYHKEITRPVTSHRFGSPDMDDAEEEAGSYFISAVCWKSDSPTMLTANSQGTIKVLVLAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>O43597</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>O43255</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>IRNTNEYTEGPT</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>MSRPSSTGPSANKPCSKQPPPQPQHTPSPAAPPAAATISAAGPGSSAVPAAAAVISGPGGGGGAGPVSPQHHELTSLFECPVCFDYVLPPILQCQAGHLVCNQCRQKLSCCPTCRGALTPSIRNLAMEKVASAVLFPCKYATTGCSLTLHHTEKPEHEDICEYRPYSCPCPGASCKWQGSLEAVMSHLMHAHKSITTLQGEDIVFLATDINLPGAVDWVMMQSCFGHHFMLVLEKQEKYEGHQQFFAIVLLIGTRKQAENFAYRLELNGNRRRLTWEATPRSIHDGVAAAIMNSDCLVFDTAIAHLFADNGNLGINVTISTCCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Q14247</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>P09936</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ADYRE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MQLKPMEINPEMLNKVLSRLGVAGQWRFVDVLGLEEESLGSVPAPACALLLLFPLTAQHENFRKKQIEELKGQEVSPKVYFMKQTIGNSCGTIGLIHAVANNQDKLGFEDGSVLKQFLSETEKMSPEDRAKCFEKNEAIQAAHDAVAQEGQCRVDDKVNFHFILFNNVDGHLYELDGRMPFPVNHGASSEDTLLKDAAKVCREFTEREQGEVRFSAVALCKAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Q12959</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>P03126</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>DSGLPS</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MHQKRTAMFQDPQERPRKLPQLCTELQTTIHDIILECVYCKQQLLRREVYDFAFRDLCIVYRDGNPYAVCDKCLKFYSKISEYRHYCYSLYGTTLEQQYNKPLCDLLIRCINCQKPLCPEEKQRHLDKKQRFHNIRGRWTGRCMSCCRSSRTRRETQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>P00533</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Q96J02</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>DSFLQRYSSDP</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>P04637</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Q9NS91</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>FSDLWKLL</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>MDSLAESRWPPGLAVMKTIDDLLRCGICFEYFNIAMIIPQCSHNYCSLCIRKFLSYKTQCPTCCVTVTEPDLKNNRILDELVKSLNFARNHLLQFALESPAKSPASSSSKNLAVKVYTPVASRQSLKQGSRLMDNFLIREMSGSTSELLIKENKSKFSPQKEASPAAKTKETRSVEEIAPDPSEAKRPEPPSTSTLKQVTKVDCPVCGVNIPESHINKHLDSCLSREEKKESLRSSVHKRKPLPKTVYNLLSDRDLKKKLKEHGLSIQGNKQQLIKRHQEFVHMYNAQCDALHPKSAAEIVREIENIEKTRMRLEASKLNESVMVFTKDQTEKEIDEIHSKYRKKHKSEFQLLVDQARKGYKKIAGMSQKTVTITKEDESTEKLSSVCMGQEDNMTSVTNHFSQSKLDSPEELEPDREEDSSSCIDIQEVLSSSESDSCNSSSSDIIRDLLEEEEAWEASHKNDLQDTEISPRQNRRTRAAESAEIEPRNKRNRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Q96J92</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Q9UH77</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>EPEEPEADQH</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MEGESVKLSSQTLIQAGDDEKNQRTITVNPAHMGKAFKVMNELRSKQLLCDVMIVAEDVEIEAHRVVLAACSPYFCAMFTGDMSESKAKKIEIKDVDGQTLSKLIDYIYTAEIEVTEENVQVLLPAASLLQLMDVRQNCCDFLQSQLHPTNCLGIRAFADVHTCTDLLQQANAYAEQHFPEVMLGEEFLSLSLDQVCSLISSDKLTVSSEEKVFEAVISWINYEKETRLEHMAKLMEHVRLPLLPRDYLVQTVEEEALIKNNNTCKDFLIEAMKYHLLPLDQRLLIKNPRTKPRTPVSLPKVMIVVGGQAPKAIRSVECYDFEEDRWDQIAELPSRRCRAGVVFMAGHVYAVGGFNGSLRVRTVDVYDGVKDQWTSIASMQERRSTLGAAVLNDLLYAVGGFDGSTGLASVEAYSYKTNEWFFVAPMNTRRSSVGVGVVEGKLYAVGGYDGASRQCLSTVEQYNPATNEWIYVADMSTRRSGAGVGVLSGQLYATGGHDGPLVRKSVEVYDPGTNTWKQVADMNMCRRNAGVCAVNGLLYVVGGDDGSCNLASVEYYNPVTDKWTLLPTNMSTGRSYAGVAVIHKSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Q9H3D4</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Q96J02</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FQHIWDFL</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>MSDSGSQLGSMGSLTMKSQLQITVISAKLKENKKNWFGPSPYVEVTVDGQSKKTEKCNNTNSPKWKQPLTVIVTPVSKLHFRVWSHQTLKSDVLLGTAALDIYETLKSNNMKLEEVVVTLQLGGDKEPTETIGDLSICLDGLQLESEVVTNGETTCSENGVSLCLPRLECNSAISAHCNLCLPGLSDSPISASRVAGFTGASQNDDGSRSKDETRVSTNGSDDPEDAGAGENRRVSGNNSPSLSNGGFKPSRPPRPSRPPPPTPRRPASVNGSPSATSESDGSSTGSLPPTNTNTNTSEGATSGLIIPLTISGGSGPRPLNPVTQAPLPPGWEQRVDQHGRVYYVDHVEKRTTWDRPEPLPPGWERRVDNMGRIYYVDHFTRTTTWQRPTLESVRNYEQWQLQRSQLQGAMQQFNQRFIYGNQDLFATSQSKEFDPLGPLPPGWEKRTDSNGRVYFVNHNTRITQWEDPRSQGQLNEKPLPEGWEMRFTVDGIPYFVDHNRRTTTYIDPRTGKSALDNGPQIAYVRDFKAKVQYFRFWCQQLAMPQHIKITVTRKTLFEDSFQQIMSFSPQDLRRRLWVIFPGEEGLDYGGVAREWFFLLSHEVLNPMYCLFEYAGKDNYCLQINPASYINPDHLKYFRFIGRFIAMALFHGKFIDTGFSLPFYKRILNKPVGLKDLESIDPEFYNSLIWVKENNIEECDLEMYFSVDKEILGEIKSHDLKPNGGNILVTEENKEEYIRMVAEWRLSRGVEEQTQAFFEGFNEILPQQYLQYFDAKELEVLLCGMQEIDLNDWQRHAIYRHYARTSKQIMWFWQFVKEIDNEKRMRLLQFVTGTCRLPVGGFADLMGSNGPQKFCIEKVGKENWLPRSHTCFNRLDLPPYKSYEQLKEKLLFAIEETEGFGQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>O14965</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Q9UJT9</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>AQRVLC</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>MGANNGKQYGSEGKGSSSISSDVSSSTDHTPTKAQKNVATSEDSDLSMRTLSTPSPALICPPNLPGFQNGRGSSTSSSSITGETVAMVHSPPPTRLTHPLIRLASRPQKEQASIDRLPDHSMVQIFSFLPTNQLCRCARVCRRWYNLAWDPRLWRTIRLTGETINVDRALKVLTRRLCQDTPNVCLMLETVTVSGCRRLTDRGLYTIAQCCPELRRLEVSGCYNISNEAVFDVVSLCPNLEHLDVSGCSKVTCISLTREASIKLSPLHGKQISIRYLDMTDCFVLEDEGLHTIAAHCTQLTHLYLRRCVRLTDEGLRYLVIYCASIKELSVSDCRFVSDFGLREIAKLESRLRYLSIAHCGRVTDVGIRYVAKYCSKLRYLNARGCEGITDHGVEYLAKNCTKLKSLDIGKCPLVSDTGLECLALNCFNLKRLSLKSCESITGQGLQIVAANCFDLQTLNVQDCEVSVEALRFVKRHCKRCVIEHTNPAFF</t>
         </is>
       </c>
     </row>
